--- a/analysis/results/Q1/univariate_analysis/uni_analysis_wb_colon.xlsx
+++ b/analysis/results/Q1/univariate_analysis/uni_analysis_wb_colon.xlsx
@@ -1555,10 +1555,10 @@
         <v>0.369492477477547</v>
       </c>
       <c r="X2" t="n">
-        <v>0.398648648648649</v>
+        <v>0.366459627329193</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.540540540540541</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" t="s">
         <v>31</v>
@@ -1647,10 +1647,10 @@
         <v>-2.18650696744285</v>
       </c>
       <c r="X3" t="n">
-        <v>0.412162162162162</v>
+        <v>0.37888198757764</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.195945945945946</v>
+        <v>0.116</v>
       </c>
       <c r="Z3" t="s">
         <v>33</v>
@@ -1739,10 +1739,10 @@
         <v>-1.82009890955872</v>
       </c>
       <c r="X4" t="n">
-        <v>0.297297297297297</v>
+        <v>0.273291925465839</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.189189189189189</v>
+        <v>0.112</v>
       </c>
       <c r="Z4" t="s">
         <v>35</v>
@@ -1831,10 +1831,10 @@
         <v>-0.136165850546746</v>
       </c>
       <c r="X5" t="n">
-        <v>0.804054054054054</v>
+        <v>0.739130434782609</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.756756756756757</v>
+        <v>0.448</v>
       </c>
       <c r="Z5" t="s">
         <v>37</v>
@@ -1923,10 +1923,10 @@
         <v>0.415849546851686</v>
       </c>
       <c r="X6" t="n">
-        <v>0.608108108108108</v>
+        <v>0.559006211180124</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.864864864864865</v>
+        <v>0.512</v>
       </c>
       <c r="Z6" t="s">
         <v>39</v>
@@ -2015,10 +2015,10 @@
         <v>-0.392371836465508</v>
       </c>
       <c r="X7" t="n">
-        <v>1.06081081081081</v>
+        <v>0.975155279503106</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.37837837837838</v>
+        <v>0.816</v>
       </c>
       <c r="Z7" t="s">
         <v>41</v>
@@ -2107,10 +2107,10 @@
         <v>-1.84575434636438</v>
       </c>
       <c r="X8" t="n">
-        <v>0.243243243243243</v>
+        <v>0.22360248447205</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.108108108108108</v>
+        <v>0.064</v>
       </c>
       <c r="Z8" t="s">
         <v>43</v>
@@ -2199,10 +2199,10 @@
         <v>0.265626015990932</v>
       </c>
       <c r="X9" t="n">
-        <v>0.344594594594595</v>
+        <v>0.316770186335404</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.371621621621622</v>
+        <v>0.22</v>
       </c>
       <c r="Z9" t="s">
         <v>45</v>
@@ -2291,10 +2291,10 @@
         <v>0.0216727903191738</v>
       </c>
       <c r="X10" t="n">
-        <v>0.702702702702703</v>
+        <v>0.645962732919255</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.716216216216216</v>
+        <v>0.424</v>
       </c>
       <c r="Z10" t="s">
         <v>47</v>
@@ -2383,10 +2383,10 @@
         <v>1.25394181132804</v>
       </c>
       <c r="X11" t="n">
-        <v>0.222972972972973</v>
+        <v>0.204968944099379</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.398648648648649</v>
+        <v>0.236</v>
       </c>
       <c r="Z11" t="s">
         <v>49</v>
@@ -2475,10 +2475,10 @@
         <v>0.552221066394634</v>
       </c>
       <c r="X12" t="n">
-        <v>0.790540540540541</v>
+        <v>0.726708074534162</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.06756756756757</v>
+        <v>0.632</v>
       </c>
       <c r="Z12" t="s">
         <v>51</v>
@@ -2567,10 +2567,10 @@
         <v>0.806522855841268</v>
       </c>
       <c r="X13" t="n">
-        <v>0.587837837837838</v>
+        <v>0.540372670807453</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.10135135135135</v>
+        <v>0.652</v>
       </c>
       <c r="Z13" t="s">
         <v>53</v>
@@ -2659,10 +2659,10 @@
         <v>-0.821553159489404</v>
       </c>
       <c r="X14" t="n">
-        <v>1.07432432432432</v>
+        <v>0.987577639751553</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.47297297297297</v>
+        <v>0.872</v>
       </c>
       <c r="Z14" t="s">
         <v>55</v>
@@ -2751,10 +2751,10 @@
         <v>1.13352782772649</v>
       </c>
       <c r="X15" t="n">
-        <v>0.25</v>
+        <v>0.229813664596273</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.108108108108108</v>
+        <v>0.064</v>
       </c>
       <c r="Z15" t="s">
         <v>57</v>
@@ -2843,10 +2843,10 @@
         <v>0.640651381683366</v>
       </c>
       <c r="X16" t="n">
-        <v>0.540540540540541</v>
+        <v>0.496894409937888</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.581081081081081</v>
+        <v>0.344</v>
       </c>
       <c r="Z16" t="s">
         <v>59</v>
@@ -2935,10 +2935,10 @@
         <v>-1.7583642321953</v>
       </c>
       <c r="X17" t="n">
-        <v>0.635135135135135</v>
+        <v>0.583850931677019</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.493243243243243</v>
+        <v>0.292</v>
       </c>
       <c r="Z17" t="s">
         <v>61</v>
@@ -3027,10 +3027,10 @@
         <v>-0.560830664119037</v>
       </c>
       <c r="X18" t="n">
-        <v>0.831081081081081</v>
+        <v>0.763975155279503</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.12162162162162</v>
+        <v>0.664</v>
       </c>
       <c r="Z18" t="s">
         <v>63</v>
@@ -3119,10 +3119,10 @@
         <v>0.960691718803702</v>
       </c>
       <c r="X19" t="n">
-        <v>0.601351351351351</v>
+        <v>0.552795031055901</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.682432432432432</v>
+        <v>0.404</v>
       </c>
       <c r="Z19" t="s">
         <v>65</v>
@@ -3211,10 +3211,10 @@
         <v>-0.563370665222017</v>
       </c>
       <c r="X20" t="n">
-        <v>1.07432432432432</v>
+        <v>0.987577639751553</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.20945945945946</v>
+        <v>0.716</v>
       </c>
       <c r="Z20" t="s">
         <v>67</v>
@@ -3303,10 +3303,10 @@
         <v>-0.492165497032863</v>
       </c>
       <c r="X21" t="n">
-        <v>0.128378378378378</v>
+        <v>0.118012422360248</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.135135135135135</v>
+        <v>0.08</v>
       </c>
       <c r="Z21" t="s">
         <v>69</v>
@@ -3395,10 +3395,10 @@
         <v>-4.20131189647177</v>
       </c>
       <c r="X22" t="n">
-        <v>0.22972972972973</v>
+        <v>0.211180124223602</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0945945945945946</v>
+        <v>0.056</v>
       </c>
       <c r="Z22" t="s">
         <v>71</v>
@@ -3487,10 +3487,10 @@
         <v>-0.477595704566044</v>
       </c>
       <c r="X23" t="n">
-        <v>1.04054054054054</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.5</v>
+        <v>0.888</v>
       </c>
       <c r="Z23" t="s">
         <v>73</v>
@@ -3579,10 +3579,10 @@
         <v>-0.252649896138894</v>
       </c>
       <c r="X24" t="n">
-        <v>0.378378378378378</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.425675675675676</v>
+        <v>0.252</v>
       </c>
       <c r="Z24" t="s">
         <v>75</v>
@@ -3671,10 +3671,10 @@
         <v>2.45213169695522</v>
       </c>
       <c r="X25" t="n">
-        <v>0.202702702702703</v>
+        <v>0.186335403726708</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.209459459459459</v>
+        <v>0.124</v>
       </c>
       <c r="Z25" t="s">
         <v>77</v>
@@ -3763,10 +3763,10 @@
         <v>0.136914580616623</v>
       </c>
       <c r="X26" t="n">
-        <v>1.08783783783784</v>
+        <v>1</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.54054054054054</v>
+        <v>0.912</v>
       </c>
       <c r="Z26" t="s">
         <v>79</v>
@@ -3855,10 +3855,10 @@
         <v>-1.71361294672503</v>
       </c>
       <c r="X27" t="n">
-        <v>0.858108108108108</v>
+        <v>0.788819875776398</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.635135135135135</v>
+        <v>0.376</v>
       </c>
       <c r="Z27" t="s">
         <v>81</v>
@@ -3947,10 +3947,10 @@
         <v>0.188690663107659</v>
       </c>
       <c r="X28" t="n">
-        <v>0.925675675675676</v>
+        <v>0.850931677018634</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.37837837837838</v>
+        <v>0.816</v>
       </c>
       <c r="Z28" t="s">
         <v>83</v>
@@ -4039,10 +4039,10 @@
         <v>-0.397092997384321</v>
       </c>
       <c r="X29" t="n">
-        <v>0.918918918918919</v>
+        <v>0.84472049689441</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.716216216216216</v>
+        <v>0.424</v>
       </c>
       <c r="Z29" t="s">
         <v>85</v>
@@ -4131,10 +4131,10 @@
         <v>0.461199417475708</v>
       </c>
       <c r="X30" t="n">
-        <v>1.08783783783784</v>
+        <v>1</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.59459459459459</v>
+        <v>0.944</v>
       </c>
       <c r="Z30" t="s">
         <v>87</v>
@@ -4223,10 +4223,10 @@
         <v>-0.160102967825548</v>
       </c>
       <c r="X31" t="n">
-        <v>1.05405405405405</v>
+        <v>0.968944099378882</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.40540540540541</v>
+        <v>0.832</v>
       </c>
       <c r="Z31" t="s">
         <v>89</v>
@@ -4315,10 +4315,10 @@
         <v>-1.46333473747252</v>
       </c>
       <c r="X32" t="n">
-        <v>0.817567567567568</v>
+        <v>0.751552795031056</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.351351351351351</v>
+        <v>0.208</v>
       </c>
       <c r="Z32" t="s">
         <v>91</v>
@@ -4407,10 +4407,10 @@
         <v>-0.596509407668263</v>
       </c>
       <c r="X33" t="n">
-        <v>0.290540540540541</v>
+        <v>0.267080745341615</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.236486486486486</v>
+        <v>0.14</v>
       </c>
       <c r="Z33" t="s">
         <v>93</v>
@@ -4499,10 +4499,10 @@
         <v>-0.0592882231762722</v>
       </c>
       <c r="X34" t="n">
-        <v>0.810810810810811</v>
+        <v>0.745341614906832</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.594594594594595</v>
+        <v>0.352</v>
       </c>
       <c r="Z34" t="s">
         <v>95</v>
@@ -4591,10 +4591,10 @@
         <v>-1.55024541175641</v>
       </c>
       <c r="X35" t="n">
-        <v>0.425675675675676</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.22972972972973</v>
+        <v>0.136</v>
       </c>
       <c r="Z35" t="s">
         <v>97</v>
@@ -4683,10 +4683,10 @@
         <v>-2.96099689565547</v>
       </c>
       <c r="X36" t="n">
-        <v>0.162162162162162</v>
+        <v>0.149068322981366</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.0608108108108108</v>
+        <v>0.036</v>
       </c>
       <c r="Z36" t="s">
         <v>99</v>
@@ -4775,10 +4775,10 @@
         <v>-0.960065603524869</v>
       </c>
       <c r="X37" t="n">
-        <v>0.898648648648649</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.851351351351351</v>
+        <v>0.504</v>
       </c>
       <c r="Z37" t="s">
         <v>101</v>
@@ -4867,10 +4867,10 @@
         <v>-3.20926454873367</v>
       </c>
       <c r="X38" t="n">
-        <v>0.743243243243243</v>
+        <v>0.683229813664596</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.358108108108108</v>
+        <v>0.212</v>
       </c>
       <c r="Z38" t="s">
         <v>103</v>
@@ -4959,10 +4959,10 @@
         <v>-0.878205951937343</v>
       </c>
       <c r="X39" t="n">
-        <v>0.47972972972973</v>
+        <v>0.440993788819876</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.202702702702703</v>
+        <v>0.12</v>
       </c>
       <c r="Z39" t="s">
         <v>105</v>
@@ -5051,10 +5051,10 @@
         <v>1.05602182272275</v>
       </c>
       <c r="X40" t="n">
-        <v>0.452702702702703</v>
+        <v>0.416149068322981</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.905405405405405</v>
+        <v>0.536</v>
       </c>
       <c r="Z40" t="s">
         <v>107</v>
@@ -5143,10 +5143,10 @@
         <v>-1.23014422648839</v>
       </c>
       <c r="X41" t="n">
-        <v>1.00675675675676</v>
+        <v>0.925465838509317</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.12837837837838</v>
+        <v>0.668</v>
       </c>
       <c r="Z41" t="s">
         <v>109</v>
@@ -5235,10 +5235,10 @@
         <v>-1.65108313369877</v>
       </c>
       <c r="X42" t="n">
-        <v>0.97972972972973</v>
+        <v>0.900621118012422</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.08783783783784</v>
+        <v>0.644</v>
       </c>
       <c r="Z42" t="s">
         <v>111</v>
@@ -5327,10 +5327,10 @@
         <v>-0.519020981591266</v>
       </c>
       <c r="X43" t="n">
-        <v>0.702702702702703</v>
+        <v>0.645962732919255</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.5</v>
+        <v>0.296</v>
       </c>
       <c r="Z43" t="s">
         <v>113</v>
@@ -5419,10 +5419,10 @@
         <v>-1.38685490765085</v>
       </c>
       <c r="X44" t="n">
-        <v>1.04054054054054</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.27702702702703</v>
+        <v>0.756</v>
       </c>
       <c r="Z44" t="s">
         <v>115</v>
@@ -5511,10 +5511,10 @@
         <v>0.447135135817268</v>
       </c>
       <c r="X45" t="n">
-        <v>0.317567567567568</v>
+        <v>0.291925465838509</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.195945945945946</v>
+        <v>0.116</v>
       </c>
       <c r="Z45" t="s">
         <v>117</v>
@@ -5603,10 +5603,10 @@
         <v>2.25681653766455</v>
       </c>
       <c r="X46" t="n">
-        <v>0.344594594594595</v>
+        <v>0.316770186335404</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.939189189189189</v>
+        <v>0.556</v>
       </c>
       <c r="Z46" t="s">
         <v>119</v>
@@ -5695,10 +5695,10 @@
         <v>-4.89381770017434</v>
       </c>
       <c r="X47" t="n">
-        <v>0.222972972972973</v>
+        <v>0.204968944099379</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.168918918918919</v>
+        <v>0.1</v>
       </c>
       <c r="Z47" t="s">
         <v>121</v>
@@ -5787,10 +5787,10 @@
         <v>-0.325857952437368</v>
       </c>
       <c r="X48" t="n">
-        <v>1.08108108108108</v>
+        <v>0.993788819875776</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.39864864864865</v>
+        <v>0.828</v>
       </c>
       <c r="Z48" t="s">
         <v>123</v>
@@ -5879,10 +5879,10 @@
         <v>-0.388826420322247</v>
       </c>
       <c r="X49" t="n">
-        <v>0.216216216216216</v>
+        <v>0.198757763975155</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.290540540540541</v>
+        <v>0.172</v>
       </c>
       <c r="Z49" t="s">
         <v>125</v>
@@ -5971,10 +5971,10 @@
         <v>-0.0522354040920731</v>
       </c>
       <c r="X50" t="n">
-        <v>0.554054054054054</v>
+        <v>0.509316770186335</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.831081081081081</v>
+        <v>0.492</v>
       </c>
       <c r="Z50" t="s">
         <v>127</v>
@@ -6063,10 +6063,10 @@
         <v>1.80425512167016</v>
       </c>
       <c r="X51" t="n">
-        <v>0.317567567567568</v>
+        <v>0.291925465838509</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.77027027027027</v>
+        <v>0.456</v>
       </c>
       <c r="Z51" t="s">
         <v>129</v>
@@ -6155,10 +6155,10 @@
         <v>7.25529400711202</v>
       </c>
       <c r="X52" t="n">
-        <v>0.0405405405405405</v>
+        <v>0.0372670807453416</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.385135135135135</v>
+        <v>0.228</v>
       </c>
       <c r="Z52" t="s">
         <v>131</v>
@@ -6247,10 +6247,10 @@
         <v>-3.59694023240835</v>
       </c>
       <c r="X53" t="n">
-        <v>0.317567567567568</v>
+        <v>0.291925465838509</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.114864864864865</v>
+        <v>0.068</v>
       </c>
       <c r="Z53" t="s">
         <v>133</v>
@@ -6339,10 +6339,10 @@
         <v>0.382571721041733</v>
       </c>
       <c r="X54" t="n">
-        <v>0.533783783783784</v>
+        <v>0.490683229813665</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.885135135135135</v>
+        <v>0.524</v>
       </c>
       <c r="Z54" t="s">
         <v>135</v>
@@ -6431,10 +6431,10 @@
         <v>-2.32237952149428</v>
       </c>
       <c r="X55" t="n">
-        <v>0.925675675675676</v>
+        <v>0.850931677018634</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.02027027027027</v>
+        <v>0.604</v>
       </c>
       <c r="Z55" t="s">
         <v>137</v>
@@ -6523,10 +6523,10 @@
         <v>0.932313103180465</v>
       </c>
       <c r="X56" t="n">
-        <v>0.587837837837838</v>
+        <v>0.540372670807453</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.06756756756757</v>
+        <v>0.632</v>
       </c>
       <c r="Z56" t="s">
         <v>139</v>
@@ -6615,10 +6615,10 @@
         <v>-1.25226012150851</v>
       </c>
       <c r="X57" t="n">
-        <v>0.22972972972973</v>
+        <v>0.211180124223602</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.135135135135135</v>
+        <v>0.08</v>
       </c>
       <c r="Z57" t="s">
         <v>141</v>
@@ -6707,10 +6707,10 @@
         <v>0.0262130613940349</v>
       </c>
       <c r="X58" t="n">
-        <v>0.378378378378378</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.25</v>
+        <v>0.148</v>
       </c>
       <c r="Z58" t="s">
         <v>143</v>
@@ -6799,10 +6799,10 @@
         <v>-2.47115671192731</v>
       </c>
       <c r="X59" t="n">
-        <v>0.351351351351351</v>
+        <v>0.322981366459627</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.202702702702703</v>
+        <v>0.12</v>
       </c>
       <c r="Z59" t="s">
         <v>145</v>
@@ -6891,10 +6891,10 @@
         <v>-1.94147891105295</v>
       </c>
       <c r="X60" t="n">
-        <v>0.324324324324324</v>
+        <v>0.298136645962733</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.135135135135135</v>
+        <v>0.08</v>
       </c>
       <c r="Z60" t="s">
         <v>147</v>
@@ -6983,10 +6983,10 @@
         <v>-0.756856303546713</v>
       </c>
       <c r="X61" t="n">
-        <v>0.439189189189189</v>
+        <v>0.403726708074534</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.432432432432432</v>
+        <v>0.256</v>
       </c>
       <c r="Z61" t="s">
         <v>149</v>
@@ -7075,10 +7075,10 @@
         <v>3.11113767228139</v>
       </c>
       <c r="X62" t="n">
-        <v>0.0472972972972973</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.385135135135135</v>
+        <v>0.228</v>
       </c>
       <c r="Z62" t="s">
         <v>151</v>
@@ -7167,10 +7167,10 @@
         <v>-0.581283061941121</v>
       </c>
       <c r="X63" t="n">
-        <v>1.08783783783784</v>
+        <v>1</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.58108108108108</v>
+        <v>0.936</v>
       </c>
       <c r="Z63" t="s">
         <v>153</v>
@@ -7259,10 +7259,10 @@
         <v>-0.691401370158431</v>
       </c>
       <c r="X64" t="n">
-        <v>0.695945945945946</v>
+        <v>0.639751552795031</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.472972972972973</v>
+        <v>0.28</v>
       </c>
       <c r="Z64" t="s">
         <v>155</v>
@@ -7351,10 +7351,10 @@
         <v>-1.50382273534645</v>
       </c>
       <c r="X65" t="n">
-        <v>0.891891891891892</v>
+        <v>0.819875776397516</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.851351351351351</v>
+        <v>0.504</v>
       </c>
       <c r="Z65" t="s">
         <v>157</v>
@@ -7443,10 +7443,10 @@
         <v>-0.639941626434241</v>
       </c>
       <c r="X66" t="n">
-        <v>0.290540540540541</v>
+        <v>0.267080745341615</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.168918918918919</v>
+        <v>0.1</v>
       </c>
       <c r="Z66" t="s">
         <v>159</v>
@@ -7535,10 +7535,10 @@
         <v>-2.15602852424875</v>
       </c>
       <c r="X67" t="n">
-        <v>0.472972972972973</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.277027027027027</v>
+        <v>0.164</v>
       </c>
       <c r="Z67" t="s">
         <v>161</v>
@@ -7627,10 +7627,10 @@
         <v>-1.35416342711318</v>
       </c>
       <c r="X68" t="n">
-        <v>0.925675675675676</v>
+        <v>0.850931677018634</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.790540540540541</v>
+        <v>0.468</v>
       </c>
       <c r="Z68" t="s">
         <v>163</v>
@@ -7719,10 +7719,10 @@
         <v>-0.188502157727922</v>
       </c>
       <c r="X69" t="n">
-        <v>1.06081081081081</v>
+        <v>0.975155279503106</v>
       </c>
       <c r="Y69" t="n">
-        <v>1.56756756756757</v>
+        <v>0.928</v>
       </c>
       <c r="Z69" t="s">
         <v>165</v>
@@ -7811,10 +7811,10 @@
         <v>-1.08334386935627</v>
       </c>
       <c r="X70" t="n">
-        <v>0.831081081081081</v>
+        <v>0.763975155279503</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.716216216216216</v>
+        <v>0.424</v>
       </c>
       <c r="Z70" t="s">
         <v>167</v>
@@ -7903,10 +7903,10 @@
         <v>-1.10530372369294</v>
       </c>
       <c r="X71" t="n">
-        <v>0.628378378378378</v>
+        <v>0.577639751552795</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.378378378378378</v>
+        <v>0.224</v>
       </c>
       <c r="Z71" t="s">
         <v>169</v>
@@ -7995,10 +7995,10 @@
         <v>-0.856874243765822</v>
       </c>
       <c r="X72" t="n">
-        <v>0.986486486486487</v>
+        <v>0.906832298136646</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.07432432432432</v>
+        <v>0.636</v>
       </c>
       <c r="Z72" t="s">
         <v>171</v>
@@ -8087,10 +8087,10 @@
         <v>1.70218504707966</v>
       </c>
       <c r="X73" t="n">
-        <v>0.344594594594595</v>
+        <v>0.316770186335404</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.337837837837838</v>
+        <v>0.2</v>
       </c>
       <c r="Z73" t="s">
         <v>173</v>
@@ -8179,10 +8179,10 @@
         <v>-4.17501115302885</v>
       </c>
       <c r="X74" t="n">
-        <v>0.155405405405405</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.135135135135135</v>
+        <v>0.08</v>
       </c>
       <c r="Z74" t="s">
         <v>175</v>
@@ -8271,10 +8271,10 @@
         <v>0.442674306302077</v>
       </c>
       <c r="X75" t="n">
-        <v>1.0472972972973</v>
+        <v>0.962732919254658</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.31081081081081</v>
+        <v>0.776</v>
       </c>
       <c r="Z75" t="s">
         <v>177</v>
@@ -8363,10 +8363,10 @@
         <v>-4.31321109995392</v>
       </c>
       <c r="X76" t="n">
-        <v>0.277027027027027</v>
+        <v>0.254658385093168</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.466216216216216</v>
+        <v>0.276</v>
       </c>
       <c r="Z76" t="s">
         <v>179</v>
@@ -8455,10 +8455,10 @@
         <v>-1.54070163161901</v>
       </c>
       <c r="X77" t="n">
-        <v>0.5</v>
+        <v>0.459627329192547</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.175675675675676</v>
+        <v>0.104</v>
       </c>
       <c r="Z77" t="s">
         <v>181</v>
@@ -8547,10 +8547,10 @@
         <v>0.0673271345117196</v>
       </c>
       <c r="X78" t="n">
-        <v>0.871621621621622</v>
+        <v>0.801242236024845</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.756756756756757</v>
+        <v>0.448</v>
       </c>
       <c r="Z78" t="s">
         <v>183</v>
@@ -8639,10 +8639,10 @@
         <v>0.298417626708616</v>
       </c>
       <c r="X79" t="n">
-        <v>0.344594594594595</v>
+        <v>0.316770186335404</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.398648648648649</v>
+        <v>0.236</v>
       </c>
       <c r="Z79" t="s">
         <v>185</v>
@@ -8731,10 +8731,10 @@
         <v>-2.91079514976459</v>
       </c>
       <c r="X80" t="n">
-        <v>0.310810810810811</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.182432432432432</v>
+        <v>0.108</v>
       </c>
       <c r="Z80" t="s">
         <v>187</v>
@@ -8823,10 +8823,10 @@
         <v>2.0950971267028</v>
       </c>
       <c r="X81" t="n">
-        <v>0.554054054054054</v>
+        <v>0.509316770186335</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.25</v>
+        <v>0.74</v>
       </c>
       <c r="Z81" t="s">
         <v>189</v>
@@ -8915,10 +8915,10 @@
         <v>-1.35741825957084</v>
       </c>
       <c r="X82" t="n">
-        <v>0.364864864864865</v>
+        <v>0.335403726708075</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.331081081081081</v>
+        <v>0.196</v>
       </c>
       <c r="Z82" t="s">
         <v>191</v>
@@ -9007,10 +9007,10 @@
         <v>-2.5213249080414</v>
       </c>
       <c r="X83" t="n">
-        <v>0.614864864864865</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.256756756756757</v>
+        <v>0.152</v>
       </c>
       <c r="Z83" t="s">
         <v>193</v>
@@ -9099,10 +9099,10 @@
         <v>-0.949791211290951</v>
       </c>
       <c r="X84" t="n">
-        <v>0.256756756756757</v>
+        <v>0.236024844720497</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.25</v>
+        <v>0.148</v>
       </c>
       <c r="Z84" t="s">
         <v>195</v>
@@ -9191,10 +9191,10 @@
         <v>5.27406251512529</v>
       </c>
       <c r="X85" t="n">
-        <v>0.263513513513513</v>
+        <v>0.242236024844721</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.939189189189189</v>
+        <v>0.556</v>
       </c>
       <c r="Z85" t="s">
         <v>197</v>
@@ -9283,10 +9283,10 @@
         <v>-0.43990980096232</v>
       </c>
       <c r="X86" t="n">
-        <v>1.03378378378378</v>
+        <v>0.950310559006211</v>
       </c>
       <c r="Y86" t="n">
-        <v>1.37837837837838</v>
+        <v>0.816</v>
       </c>
       <c r="Z86" t="s">
         <v>199</v>
@@ -9375,10 +9375,10 @@
         <v>1.63757741893533</v>
       </c>
       <c r="X87" t="n">
-        <v>0.628378378378378</v>
+        <v>0.577639751552795</v>
       </c>
       <c r="Y87" t="n">
-        <v>1.21621621621622</v>
+        <v>0.72</v>
       </c>
       <c r="Z87" t="s">
         <v>201</v>
@@ -9467,10 +9467,10 @@
         <v>-1.46916548522524</v>
       </c>
       <c r="X88" t="n">
-        <v>0.972972972972973</v>
+        <v>0.894409937888199</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.898648648648649</v>
+        <v>0.532</v>
       </c>
       <c r="Z88" t="s">
         <v>203</v>
@@ -9559,10 +9559,10 @@
         <v>3.69191893597869</v>
       </c>
       <c r="X89" t="n">
-        <v>0.0472972972972973</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.297297297297297</v>
+        <v>0.176</v>
       </c>
       <c r="Z89" t="s">
         <v>205</v>
@@ -9651,10 +9651,10 @@
         <v>-0.805867558767578</v>
       </c>
       <c r="X90" t="n">
-        <v>1.08783783783784</v>
+        <v>1</v>
       </c>
       <c r="Y90" t="n">
-        <v>1.58108108108108</v>
+        <v>0.936</v>
       </c>
       <c r="Z90" t="s">
         <v>207</v>
@@ -9743,10 +9743,10 @@
         <v>1.08359080100887</v>
       </c>
       <c r="X91" t="n">
-        <v>0.689189189189189</v>
+        <v>0.633540372670807</v>
       </c>
       <c r="Y91" t="n">
-        <v>1.16216216216216</v>
+        <v>0.688</v>
       </c>
       <c r="Z91" t="s">
         <v>209</v>
@@ -9835,10 +9835,10 @@
         <v>1.11623365162017</v>
       </c>
       <c r="X92" t="n">
-        <v>0.878378378378378</v>
+        <v>0.807453416149068</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.918918918918919</v>
+        <v>0.544</v>
       </c>
       <c r="Z92" t="s">
         <v>211</v>
@@ -9927,10 +9927,10 @@
         <v>-0.638628058146005</v>
       </c>
       <c r="X93" t="n">
-        <v>0.885135135135135</v>
+        <v>0.813664596273292</v>
       </c>
       <c r="Y93" t="n">
-        <v>1.02027027027027</v>
+        <v>0.604</v>
       </c>
       <c r="Z93" t="s">
         <v>213</v>
@@ -10019,10 +10019,10 @@
         <v>-0.26201537863822</v>
       </c>
       <c r="X94" t="n">
-        <v>0.810810810810811</v>
+        <v>0.745341614906832</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.844594594594595</v>
+        <v>0.5</v>
       </c>
       <c r="Z94" t="s">
         <v>215</v>
@@ -10111,10 +10111,10 @@
         <v>0.523580168604758</v>
       </c>
       <c r="X95" t="n">
-        <v>1.03378378378378</v>
+        <v>0.950310559006211</v>
       </c>
       <c r="Y95" t="n">
-        <v>1.33783783783784</v>
+        <v>0.792</v>
       </c>
       <c r="Z95" t="s">
         <v>217</v>
@@ -10203,10 +10203,10 @@
         <v>-1.30139936866753</v>
       </c>
       <c r="X96" t="n">
-        <v>0.972972972972973</v>
+        <v>0.894409937888199</v>
       </c>
       <c r="Y96" t="n">
-        <v>1.0472972972973</v>
+        <v>0.62</v>
       </c>
       <c r="Z96" t="s">
         <v>219</v>
@@ -10295,10 +10295,10 @@
         <v>1.78491351264898</v>
       </c>
       <c r="X97" t="n">
-        <v>0.155405405405405</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.148648648648649</v>
+        <v>0.088</v>
       </c>
       <c r="Z97" t="s">
         <v>221</v>
@@ -10387,10 +10387,10 @@
         <v>-0.474547156188695</v>
       </c>
       <c r="X98" t="n">
-        <v>0.918918918918919</v>
+        <v>0.84472049689441</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.810810810810811</v>
+        <v>0.48</v>
       </c>
       <c r="Z98" t="s">
         <v>223</v>
@@ -10479,10 +10479,10 @@
         <v>-0.0641760719171939</v>
       </c>
       <c r="X99" t="n">
-        <v>0.168918918918919</v>
+        <v>0.15527950310559</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.189189189189189</v>
+        <v>0.112</v>
       </c>
       <c r="Z99" t="s">
         <v>225</v>
@@ -10571,10 +10571,10 @@
         <v>-2.61188751099873</v>
       </c>
       <c r="X100" t="n">
-        <v>0.310810810810811</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.175675675675676</v>
+        <v>0.104</v>
       </c>
       <c r="Z100" t="s">
         <v>227</v>
@@ -10663,10 +10663,10 @@
         <v>-1.8483990314846</v>
       </c>
       <c r="X101" t="n">
-        <v>0.195945945945946</v>
+        <v>0.180124223602484</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.182432432432432</v>
+        <v>0.108</v>
       </c>
       <c r="Z101" t="s">
         <v>229</v>
@@ -10755,10 +10755,10 @@
         <v>0.43299673272076</v>
       </c>
       <c r="X102" t="n">
-        <v>0.635135135135135</v>
+        <v>0.583850931677019</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.783783783783784</v>
+        <v>0.464</v>
       </c>
       <c r="Z102" t="s">
         <v>231</v>
@@ -10847,10 +10847,10 @@
         <v>-0.610341519964657</v>
       </c>
       <c r="X103" t="n">
-        <v>0.317567567567568</v>
+        <v>0.291925465838509</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.182432432432432</v>
+        <v>0.108</v>
       </c>
       <c r="Z103" t="s">
         <v>233</v>
@@ -10939,10 +10939,10 @@
         <v>-0.888674047029764</v>
       </c>
       <c r="X104" t="n">
-        <v>0.682432432432432</v>
+        <v>0.627329192546584</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.574324324324324</v>
+        <v>0.34</v>
       </c>
       <c r="Z104" t="s">
         <v>235</v>
@@ -11031,10 +11031,10 @@
         <v>1.1331159188563</v>
       </c>
       <c r="X105" t="n">
-        <v>0.635135135135135</v>
+        <v>0.583850931677019</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.682432432432432</v>
+        <v>0.404</v>
       </c>
       <c r="Z105" t="s">
         <v>237</v>
@@ -11123,10 +11123,10 @@
         <v>0.890573533888487</v>
       </c>
       <c r="X106" t="n">
-        <v>0.459459459459459</v>
+        <v>0.422360248447205</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.459459459459459</v>
+        <v>0.272</v>
       </c>
       <c r="Z106" t="s">
         <v>239</v>
@@ -11215,10 +11215,10 @@
         <v>-2.28502859107013</v>
       </c>
       <c r="X107" t="n">
-        <v>0.72972972972973</v>
+        <v>0.670807453416149</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.304054054054054</v>
+        <v>0.18</v>
       </c>
       <c r="Z107" t="s">
         <v>241</v>
@@ -11307,10 +11307,10 @@
         <v>-0.709515291786782</v>
       </c>
       <c r="X108" t="n">
-        <v>1.00675675675676</v>
+        <v>0.925465838509317</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.77027027027027</v>
+        <v>0.456</v>
       </c>
       <c r="Z108" t="s">
         <v>243</v>
@@ -11399,10 +11399,10 @@
         <v>-0.985204526890258</v>
       </c>
       <c r="X109" t="n">
-        <v>0.972972972972973</v>
+        <v>0.894409937888199</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.932432432432432</v>
+        <v>0.552</v>
       </c>
       <c r="Z109" t="s">
         <v>245</v>
@@ -11491,10 +11491,10 @@
         <v>-0.404665972298098</v>
       </c>
       <c r="X110" t="n">
-        <v>0.614864864864865</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.621621621621622</v>
+        <v>0.368</v>
       </c>
       <c r="Z110" t="s">
         <v>247</v>
@@ -11583,10 +11583,10 @@
         <v>0.155704669808055</v>
       </c>
       <c r="X111" t="n">
-        <v>0.256756756756757</v>
+        <v>0.236024844720497</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.222972972972973</v>
+        <v>0.132</v>
       </c>
       <c r="Z111" t="s">
         <v>249</v>
@@ -11675,10 +11675,10 @@
         <v>-0.840296926679788</v>
       </c>
       <c r="X112" t="n">
-        <v>1.02702702702703</v>
+        <v>0.944099378881988</v>
       </c>
       <c r="Y112" t="n">
-        <v>1.10810810810811</v>
+        <v>0.656</v>
       </c>
       <c r="Z112" t="s">
         <v>251</v>
@@ -11767,10 +11767,10 @@
         <v>-0.828687940023006</v>
       </c>
       <c r="X113" t="n">
-        <v>0.445945945945946</v>
+        <v>0.409937888198758</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.432432432432432</v>
+        <v>0.256</v>
       </c>
       <c r="Z113" t="s">
         <v>253</v>
@@ -11859,10 +11859,10 @@
         <v>-1.27814839902487</v>
       </c>
       <c r="X114" t="n">
-        <v>0.675675675675676</v>
+        <v>0.62111801242236</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.635135135135135</v>
+        <v>0.376</v>
       </c>
       <c r="Z114" t="s">
         <v>255</v>
@@ -11951,10 +11951,10 @@
         <v>0.33755461484317</v>
       </c>
       <c r="X115" t="n">
-        <v>0.195945945945946</v>
+        <v>0.180124223602484</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.216216216216216</v>
+        <v>0.128</v>
       </c>
       <c r="Z115" t="s">
         <v>257</v>
@@ -12043,10 +12043,10 @@
         <v>-1.14295189579204</v>
       </c>
       <c r="X116" t="n">
-        <v>0.283783783783784</v>
+        <v>0.260869565217391</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.25</v>
+        <v>0.148</v>
       </c>
       <c r="Z116" t="s">
         <v>259</v>
@@ -12135,10 +12135,10 @@
         <v>-1.45683373087978</v>
       </c>
       <c r="X117" t="n">
-        <v>0.195945945945946</v>
+        <v>0.180124223602484</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.236486486486486</v>
+        <v>0.14</v>
       </c>
       <c r="Z117" t="s">
         <v>261</v>
@@ -12227,10 +12227,10 @@
         <v>0.0830174224847268</v>
       </c>
       <c r="X118" t="n">
-        <v>0.743243243243243</v>
+        <v>0.683229813664596</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.52027027027027</v>
+        <v>0.308</v>
       </c>
       <c r="Z118" t="s">
         <v>263</v>
@@ -12319,10 +12319,10 @@
         <v>1.67620993772678</v>
       </c>
       <c r="X119" t="n">
-        <v>0.114864864864865</v>
+        <v>0.105590062111801</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.25</v>
+        <v>0.148</v>
       </c>
       <c r="Z119" t="s">
         <v>265</v>
@@ -12411,10 +12411,10 @@
         <v>1.5336625970776</v>
       </c>
       <c r="X120" t="n">
-        <v>0.195945945945946</v>
+        <v>0.180124223602484</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.304054054054054</v>
+        <v>0.18</v>
       </c>
       <c r="Z120" t="s">
         <v>267</v>
@@ -12503,10 +12503,10 @@
         <v>0.211541804405013</v>
       </c>
       <c r="X121" t="n">
-        <v>0.256756756756757</v>
+        <v>0.236024844720497</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.222972972972973</v>
+        <v>0.132</v>
       </c>
       <c r="Z121" t="s">
         <v>269</v>
@@ -12595,10 +12595,10 @@
         <v>-0.897274543426675</v>
       </c>
       <c r="X122" t="n">
-        <v>0.148648648648649</v>
+        <v>0.136645962732919</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.0675675675675676</v>
+        <v>0.04</v>
       </c>
       <c r="Z122" t="s">
         <v>271</v>
@@ -12687,10 +12687,10 @@
         <v>-1.02155934898295</v>
       </c>
       <c r="X123" t="n">
-        <v>0.25</v>
+        <v>0.229813664596273</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.182432432432432</v>
+        <v>0.108</v>
       </c>
       <c r="Z123" t="s">
         <v>273</v>
@@ -12779,10 +12779,10 @@
         <v>-2.69905703850098</v>
       </c>
       <c r="X124" t="n">
-        <v>0.101351351351351</v>
+        <v>0.093167701863354</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.709459459459459</v>
+        <v>0.42</v>
       </c>
       <c r="Z124" t="s">
         <v>275</v>
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.290540540540541</v>
+        <v>0.172</v>
       </c>
       <c r="Z125" t="s">
         <v>277</v>
@@ -12963,10 +12963,10 @@
         <v>-3.05077505581278</v>
       </c>
       <c r="X126" t="n">
-        <v>0.25</v>
+        <v>0.229813664596273</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.0878378378378378</v>
+        <v>0.052</v>
       </c>
       <c r="Z126" t="s">
         <v>279</v>
@@ -13055,10 +13055,10 @@
         <v>-1.23479045631102</v>
       </c>
       <c r="X127" t="n">
-        <v>0.513513513513513</v>
+        <v>0.472049689440994</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.547297297297297</v>
+        <v>0.324</v>
       </c>
       <c r="Z127" t="s">
         <v>281</v>
@@ -13147,10 +13147,10 @@
         <v>1.84734464301174</v>
       </c>
       <c r="X128" t="n">
-        <v>1.05405405405405</v>
+        <v>0.968944099378882</v>
       </c>
       <c r="Y128" t="n">
-        <v>1.47297297297297</v>
+        <v>0.872</v>
       </c>
       <c r="Z128" t="s">
         <v>283</v>
@@ -13239,10 +13239,10 @@
         <v>0.362012477926373</v>
       </c>
       <c r="X129" t="n">
-        <v>0.418918918918919</v>
+        <v>0.385093167701863</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.432432432432432</v>
+        <v>0.256</v>
       </c>
       <c r="Z129" t="s">
         <v>285</v>
@@ -13331,10 +13331,10 @@
         <v>0.10341120168472</v>
       </c>
       <c r="X130" t="n">
-        <v>0.844594594594595</v>
+        <v>0.77639751552795</v>
       </c>
       <c r="Y130" t="n">
-        <v>1</v>
+        <v>0.592</v>
       </c>
       <c r="Z130" t="s">
         <v>287</v>
@@ -13423,10 +13423,10 @@
         <v>0.751271081637087</v>
       </c>
       <c r="X131" t="n">
-        <v>0.283783783783784</v>
+        <v>0.260869565217391</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.486486486486487</v>
+        <v>0.288</v>
       </c>
       <c r="Z131" t="s">
         <v>289</v>
@@ -13515,10 +13515,10 @@
         <v>-2.94681900041408</v>
       </c>
       <c r="X132" t="n">
-        <v>0.567567567567568</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.378378378378378</v>
+        <v>0.224</v>
       </c>
       <c r="Z132" t="s">
         <v>291</v>
@@ -13607,10 +13607,10 @@
         <v>-1.77547699711198</v>
       </c>
       <c r="X133" t="n">
-        <v>0.506756756756757</v>
+        <v>0.46583850931677</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.364864864864865</v>
+        <v>0.216</v>
       </c>
       <c r="Z133" t="s">
         <v>293</v>
@@ -13699,10 +13699,10 @@
         <v>1.79452126766452</v>
       </c>
       <c r="X134" t="n">
-        <v>1.01351351351351</v>
+        <v>0.93167701863354</v>
       </c>
       <c r="Y134" t="n">
-        <v>1.58783783783784</v>
+        <v>0.94</v>
       </c>
       <c r="Z134" t="s">
         <v>295</v>
@@ -13791,10 +13791,10 @@
         <v>0.994238876899058</v>
       </c>
       <c r="X135" t="n">
-        <v>1</v>
+        <v>0.919254658385093</v>
       </c>
       <c r="Y135" t="n">
-        <v>1.27702702702703</v>
+        <v>0.756</v>
       </c>
       <c r="Z135" t="s">
         <v>297</v>
@@ -13883,10 +13883,10 @@
         <v>-1.22814494903868</v>
       </c>
       <c r="X136" t="n">
-        <v>0.885135135135135</v>
+        <v>0.813664596273292</v>
       </c>
       <c r="Y136" t="n">
-        <v>1.0472972972973</v>
+        <v>0.62</v>
       </c>
       <c r="Z136" t="s">
         <v>299</v>
@@ -13975,10 +13975,10 @@
         <v>-0.286213846019722</v>
       </c>
       <c r="X137" t="n">
-        <v>0.189189189189189</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.175675675675676</v>
+        <v>0.104</v>
       </c>
       <c r="Z137" t="s">
         <v>301</v>
@@ -14067,10 +14067,10 @@
         <v>-4.39387338147368</v>
       </c>
       <c r="X138" t="n">
-        <v>0.121621621621622</v>
+        <v>0.111801242236025</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.155405405405405</v>
+        <v>0.092</v>
       </c>
       <c r="Z138" t="s">
         <v>303</v>
@@ -14159,10 +14159,10 @@
         <v>1.36524933560314</v>
       </c>
       <c r="X139" t="n">
-        <v>0.189189189189189</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.418918918918919</v>
+        <v>0.248</v>
       </c>
       <c r="Z139" t="s">
         <v>305</v>
@@ -14251,10 +14251,10 @@
         <v>-0.223835916406941</v>
       </c>
       <c r="X140" t="n">
-        <v>0.175675675675676</v>
+        <v>0.161490683229814</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.25</v>
+        <v>0.148</v>
       </c>
       <c r="Z140" t="s">
         <v>307</v>
@@ -14343,10 +14343,10 @@
         <v>0.43229269753422</v>
       </c>
       <c r="X141" t="n">
-        <v>0.277027027027027</v>
+        <v>0.254658385093168</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.22972972972973</v>
+        <v>0.136</v>
       </c>
       <c r="Z141" t="s">
         <v>309</v>
@@ -14435,10 +14435,10 @@
         <v>-1.09656585063257</v>
       </c>
       <c r="X142" t="n">
-        <v>0.668918918918919</v>
+        <v>0.614906832298137</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.804054054054054</v>
+        <v>0.476</v>
       </c>
       <c r="Z142" t="s">
         <v>311</v>
@@ -14527,10 +14527,10 @@
         <v>-0.279822069620741</v>
       </c>
       <c r="X143" t="n">
-        <v>0.959459459459459</v>
+        <v>0.881987577639752</v>
       </c>
       <c r="Y143" t="n">
-        <v>1.10135135135135</v>
+        <v>0.652</v>
       </c>
       <c r="Z143" t="s">
         <v>313</v>
@@ -14619,10 +14619,10 @@
         <v>0.840540036534337</v>
       </c>
       <c r="X144" t="n">
-        <v>0.864864864864865</v>
+        <v>0.795031055900621</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.993243243243243</v>
+        <v>0.588</v>
       </c>
       <c r="Z144" t="s">
         <v>315</v>
@@ -14711,10 +14711,10 @@
         <v>-0.569915028366909</v>
       </c>
       <c r="X145" t="n">
-        <v>0.831081081081081</v>
+        <v>0.763975155279503</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.716216216216216</v>
+        <v>0.424</v>
       </c>
       <c r="Z145" t="s">
         <v>317</v>
@@ -14803,10 +14803,10 @@
         <v>-2.86730775751738</v>
       </c>
       <c r="X146" t="n">
-        <v>0.310810810810811</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.0743243243243243</v>
+        <v>0.044</v>
       </c>
       <c r="Z146" t="s">
         <v>319</v>
@@ -14895,10 +14895,10 @@
         <v>-0.758934522266805</v>
       </c>
       <c r="X147" t="n">
-        <v>0.358108108108108</v>
+        <v>0.329192546583851</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.263513513513513</v>
+        <v>0.156</v>
       </c>
       <c r="Z147" t="s">
         <v>321</v>
@@ -14987,10 +14987,10 @@
         <v>4.19137271776212</v>
       </c>
       <c r="X148" t="n">
-        <v>0.689189189189189</v>
+        <v>0.633540372670807</v>
       </c>
       <c r="Y148" t="n">
-        <v>1.47972972972973</v>
+        <v>0.876</v>
       </c>
       <c r="Z148" t="s">
         <v>323</v>
@@ -15082,7 +15082,7 @@
         <v>0</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.202702702702703</v>
+        <v>0.12</v>
       </c>
       <c r="Z149" t="s">
         <v>325</v>
@@ -15277,10 +15277,10 @@
         <v>1.01102478616429</v>
       </c>
       <c r="X2" t="n">
-        <v>0.615384615384615</v>
+        <v>0.32</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.51538461538462</v>
+        <v>0.562857142857143</v>
       </c>
       <c r="Z2" t="s">
         <v>31</v>
@@ -15369,10 +15369,10 @@
         <v>0.530813237503691</v>
       </c>
       <c r="X3" t="n">
-        <v>0.861538461538462</v>
+        <v>0.448</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.52307692307692</v>
+        <v>0.565714285714286</v>
       </c>
       <c r="Z3" t="s">
         <v>37</v>
@@ -15461,10 +15461,10 @@
         <v>-0.417989970701527</v>
       </c>
       <c r="X4" t="n">
-        <v>0.984615384615385</v>
+        <v>0.512</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.43846153846154</v>
+        <v>0.534285714285714</v>
       </c>
       <c r="Z4" t="s">
         <v>39</v>
@@ -15553,10 +15553,10 @@
         <v>0.120887552592408</v>
       </c>
       <c r="X5" t="n">
-        <v>1.56923076923077</v>
+        <v>0.816</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.2</v>
+        <v>0.817142857142857</v>
       </c>
       <c r="Z5" t="s">
         <v>41</v>
@@ -15645,10 +15645,10 @@
         <v>-0.555047193602206</v>
       </c>
       <c r="X6" t="n">
-        <v>0.423076923076923</v>
+        <v>0.22</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.561538461538462</v>
+        <v>0.208571428571429</v>
       </c>
       <c r="Z6" t="s">
         <v>45</v>
@@ -15737,10 +15737,10 @@
         <v>0.00279833116381771</v>
       </c>
       <c r="X7" t="n">
-        <v>0.815384615384615</v>
+        <v>0.424</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.33846153846154</v>
+        <v>0.497142857142857</v>
       </c>
       <c r="Z7" t="s">
         <v>47</v>
@@ -15829,10 +15829,10 @@
         <v>0.374677027884218</v>
       </c>
       <c r="X8" t="n">
-        <v>0.453846153846154</v>
+        <v>0.236</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.607692307692308</v>
+        <v>0.225714285714286</v>
       </c>
       <c r="Z8" t="s">
         <v>49</v>
@@ -15921,10 +15921,10 @@
         <v>-0.491273869103398</v>
       </c>
       <c r="X9" t="n">
-        <v>1.21538461538462</v>
+        <v>0.632</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.54615384615385</v>
+        <v>0.574285714285714</v>
       </c>
       <c r="Z9" t="s">
         <v>51</v>
@@ -16013,10 +16013,10 @@
         <v>0.0781269384092648</v>
       </c>
       <c r="X10" t="n">
-        <v>1.25384615384615</v>
+        <v>0.652</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.83076923076923</v>
+        <v>0.68</v>
       </c>
       <c r="Z10" t="s">
         <v>53</v>
@@ -16105,10 +16105,10 @@
         <v>0.458254639606346</v>
       </c>
       <c r="X11" t="n">
-        <v>1.67692307692308</v>
+        <v>0.872</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.53076923076923</v>
+        <v>0.94</v>
       </c>
       <c r="Z11" t="s">
         <v>55</v>
@@ -16197,10 +16197,10 @@
         <v>0.976084403490486</v>
       </c>
       <c r="X12" t="n">
-        <v>0.123076923076923</v>
+        <v>0.064</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.546153846153846</v>
+        <v>0.202857142857143</v>
       </c>
       <c r="Z12" t="s">
         <v>57</v>
@@ -16289,10 +16289,10 @@
         <v>0.63513922960259</v>
       </c>
       <c r="X13" t="n">
-        <v>0.661538461538462</v>
+        <v>0.344</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.66153846153846</v>
+        <v>0.617142857142857</v>
       </c>
       <c r="Z13" t="s">
         <v>59</v>
@@ -16381,10 +16381,10 @@
         <v>1.00657974228418</v>
       </c>
       <c r="X14" t="n">
-        <v>0.561538461538462</v>
+        <v>0.292</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.792307692307692</v>
+        <v>0.294285714285714</v>
       </c>
       <c r="Z14" t="s">
         <v>61</v>
@@ -16473,10 +16473,10 @@
         <v>0.789580931838438</v>
       </c>
       <c r="X15" t="n">
-        <v>1.27692307692308</v>
+        <v>0.664</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.88461538461538</v>
+        <v>0.7</v>
       </c>
       <c r="Z15" t="s">
         <v>63</v>
@@ -16565,10 +16565,10 @@
         <v>-0.53229321281383</v>
       </c>
       <c r="X16" t="n">
-        <v>0.776923076923077</v>
+        <v>0.404</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.953846153846154</v>
+        <v>0.354285714285714</v>
       </c>
       <c r="Z16" t="s">
         <v>65</v>
@@ -16657,10 +16657,10 @@
         <v>-0.0952671379869417</v>
       </c>
       <c r="X17" t="n">
-        <v>1.37692307692308</v>
+        <v>0.716</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.01538461538462</v>
+        <v>0.748571428571429</v>
       </c>
       <c r="Z17" t="s">
         <v>67</v>
@@ -16749,10 +16749,10 @@
         <v>0.00467340577449436</v>
       </c>
       <c r="X18" t="n">
-        <v>1.70769230769231</v>
+        <v>0.888</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.38461538461538</v>
+        <v>0.885714285714286</v>
       </c>
       <c r="Z18" t="s">
         <v>73</v>
@@ -16841,10 +16841,10 @@
         <v>-0.0545376654689547</v>
       </c>
       <c r="X19" t="n">
-        <v>0.484615384615385</v>
+        <v>0.252</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.669230769230769</v>
+        <v>0.248571428571429</v>
       </c>
       <c r="Z19" t="s">
         <v>75</v>
@@ -16933,10 +16933,10 @@
         <v>-0.254217562673892</v>
       </c>
       <c r="X20" t="n">
-        <v>1.75384615384615</v>
+        <v>0.912</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.52307692307692</v>
+        <v>0.937142857142857</v>
       </c>
       <c r="Z20" t="s">
         <v>79</v>
@@ -17025,10 +17025,10 @@
         <v>1.04256222139837</v>
       </c>
       <c r="X21" t="n">
-        <v>0.723076923076923</v>
+        <v>0.376</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.3</v>
+        <v>0.482857142857143</v>
       </c>
       <c r="Z21" t="s">
         <v>81</v>
@@ -17117,10 +17117,10 @@
         <v>0.596791694405032</v>
       </c>
       <c r="X22" t="n">
-        <v>1.56923076923077</v>
+        <v>0.816</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.27692307692308</v>
+        <v>0.845714285714286</v>
       </c>
       <c r="Z22" t="s">
         <v>83</v>
@@ -17209,10 +17209,10 @@
         <v>0.577287197553784</v>
       </c>
       <c r="X23" t="n">
-        <v>0.815384615384615</v>
+        <v>0.424</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.35384615384615</v>
+        <v>0.502857142857143</v>
       </c>
       <c r="Z23" t="s">
         <v>85</v>
@@ -17301,10 +17301,10 @@
         <v>-0.23524083858547</v>
       </c>
       <c r="X24" t="n">
-        <v>1.81538461538462</v>
+        <v>0.944</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.6</v>
+        <v>0.965714285714286</v>
       </c>
       <c r="Z24" t="s">
         <v>87</v>
@@ -17393,10 +17393,10 @@
         <v>-0.146971869733163</v>
       </c>
       <c r="X25" t="n">
-        <v>1.6</v>
+        <v>0.832</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.35384615384615</v>
+        <v>0.874285714285714</v>
       </c>
       <c r="Z25" t="s">
         <v>89</v>
@@ -17485,10 +17485,10 @@
         <v>0.682957728555979</v>
       </c>
       <c r="X26" t="n">
-        <v>0.4</v>
+        <v>0.208</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.969230769230769</v>
+        <v>0.36</v>
       </c>
       <c r="Z26" t="s">
         <v>91</v>
@@ -17577,10 +17577,10 @@
         <v>0.14886059865311</v>
       </c>
       <c r="X27" t="n">
-        <v>0.269230769230769</v>
+        <v>0.14</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.184615384615385</v>
+        <v>0.0685714285714286</v>
       </c>
       <c r="Z27" t="s">
         <v>93</v>
@@ -17669,10 +17669,10 @@
         <v>-0.417417931940278</v>
       </c>
       <c r="X28" t="n">
-        <v>0.676923076923077</v>
+        <v>0.352</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.07692307692308</v>
+        <v>0.4</v>
       </c>
       <c r="Z28" t="s">
         <v>95</v>
@@ -17761,10 +17761,10 @@
         <v>0.364675165169198</v>
       </c>
       <c r="X29" t="n">
-        <v>0.261538461538462</v>
+        <v>0.136</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.623076923076923</v>
+        <v>0.231428571428571</v>
       </c>
       <c r="Z29" t="s">
         <v>97</v>
@@ -17853,10 +17853,10 @@
         <v>-0.326597394655634</v>
       </c>
       <c r="X30" t="n">
-        <v>0.969230769230769</v>
+        <v>0.504</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.17692307692308</v>
+        <v>0.437142857142857</v>
       </c>
       <c r="Z30" t="s">
         <v>101</v>
@@ -17945,10 +17945,10 @@
         <v>1.91686619028763</v>
       </c>
       <c r="X31" t="n">
-        <v>0.407692307692308</v>
+        <v>0.212</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.761538461538461</v>
+        <v>0.282857142857143</v>
       </c>
       <c r="Z31" t="s">
         <v>103</v>
@@ -18037,10 +18037,10 @@
         <v>0.585214066565229</v>
       </c>
       <c r="X32" t="n">
-        <v>0.230769230769231</v>
+        <v>0.12</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.376923076923077</v>
+        <v>0.14</v>
       </c>
       <c r="Z32" t="s">
         <v>105</v>
@@ -18129,10 +18129,10 @@
         <v>-0.86605322676609</v>
       </c>
       <c r="X33" t="n">
-        <v>1.03076923076923</v>
+        <v>0.536</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.65384615384615</v>
+        <v>0.614285714285714</v>
       </c>
       <c r="Z33" t="s">
         <v>107</v>
@@ -18221,10 +18221,10 @@
         <v>-0.389241540936839</v>
       </c>
       <c r="X34" t="n">
-        <v>1.28461538461538</v>
+        <v>0.668</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.73076923076923</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="Z34" t="s">
         <v>109</v>
@@ -18313,10 +18313,10 @@
         <v>1.77463778108197</v>
       </c>
       <c r="X35" t="n">
-        <v>1.23846153846154</v>
+        <v>0.644</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.92307692307692</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="Z35" t="s">
         <v>111</v>
@@ -18405,10 +18405,10 @@
         <v>0.649287786528675</v>
       </c>
       <c r="X36" t="n">
-        <v>0.569230769230769</v>
+        <v>0.296</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.992307692307692</v>
+        <v>0.368571428571429</v>
       </c>
       <c r="Z36" t="s">
         <v>113</v>
@@ -18497,10 +18497,10 @@
         <v>0.453315072181257</v>
       </c>
       <c r="X37" t="n">
-        <v>1.45384615384615</v>
+        <v>0.756</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.11538461538462</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="Z37" t="s">
         <v>115</v>
@@ -18589,10 +18589,10 @@
         <v>2.85920885200332</v>
       </c>
       <c r="X38" t="n">
-        <v>0.153846153846154</v>
+        <v>0.08</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.707692307692308</v>
+        <v>0.262857142857143</v>
       </c>
       <c r="Z38" t="s">
         <v>336</v>
@@ -18681,10 +18681,10 @@
         <v>-0.240727583781686</v>
       </c>
       <c r="X39" t="n">
-        <v>0.223076923076923</v>
+        <v>0.116</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.376923076923077</v>
+        <v>0.14</v>
       </c>
       <c r="Z39" t="s">
         <v>117</v>
@@ -18773,10 +18773,10 @@
         <v>-0.134413646651148</v>
       </c>
       <c r="X40" t="n">
-        <v>1.06923076923077</v>
+        <v>0.556</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.43076923076923</v>
+        <v>0.531428571428571</v>
       </c>
       <c r="Z40" t="s">
         <v>119</v>
@@ -18865,10 +18865,10 @@
         <v>0.755755050016488</v>
       </c>
       <c r="X41" t="n">
-        <v>1.59230769230769</v>
+        <v>0.828</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.48461538461538</v>
+        <v>0.922857142857143</v>
       </c>
       <c r="Z41" t="s">
         <v>123</v>
@@ -18957,10 +18957,10 @@
         <v>0.851413186671082</v>
       </c>
       <c r="X42" t="n">
-        <v>0.330769230769231</v>
+        <v>0.172</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.507692307692308</v>
+        <v>0.188571428571429</v>
       </c>
       <c r="Z42" t="s">
         <v>125</v>
@@ -19049,10 +19049,10 @@
         <v>-0.483177117092485</v>
       </c>
       <c r="X43" t="n">
-        <v>0.946153846153846</v>
+        <v>0.492</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.36923076923077</v>
+        <v>0.508571428571429</v>
       </c>
       <c r="Z43" t="s">
         <v>127</v>
@@ -19141,10 +19141,10 @@
         <v>-0.294478459211466</v>
       </c>
       <c r="X44" t="n">
-        <v>0.876923076923077</v>
+        <v>0.456</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.753846153846154</v>
+        <v>0.28</v>
       </c>
       <c r="Z44" t="s">
         <v>129</v>
@@ -19233,10 +19233,10 @@
         <v>-0.588672570230273</v>
       </c>
       <c r="X45" t="n">
-        <v>0.438461538461538</v>
+        <v>0.228</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.16153846153846</v>
+        <v>0.431428571428571</v>
       </c>
       <c r="Z45" t="s">
         <v>131</v>
@@ -19325,10 +19325,10 @@
         <v>-0.381561572452114</v>
       </c>
       <c r="X46" t="n">
-        <v>1.00769230769231</v>
+        <v>0.524</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.3</v>
+        <v>0.482857142857143</v>
       </c>
       <c r="Z46" t="s">
         <v>135</v>
@@ -19417,10 +19417,10 @@
         <v>1.54167402849172</v>
       </c>
       <c r="X47" t="n">
-        <v>1.16153846153846</v>
+        <v>0.604</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.63846153846154</v>
+        <v>0.608571428571429</v>
       </c>
       <c r="Z47" t="s">
         <v>137</v>
@@ -19509,10 +19509,10 @@
         <v>0.972687900967952</v>
       </c>
       <c r="X48" t="n">
-        <v>1.21538461538462</v>
+        <v>0.632</v>
       </c>
       <c r="Y48" t="n">
-        <v>2.15384615384615</v>
+        <v>0.8</v>
       </c>
       <c r="Z48" t="s">
         <v>139</v>
@@ -19601,10 +19601,10 @@
         <v>-0.986810970876938</v>
       </c>
       <c r="X49" t="n">
-        <v>0.284615384615385</v>
+        <v>0.148</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.361538461538462</v>
+        <v>0.134285714285714</v>
       </c>
       <c r="Z49" t="s">
         <v>143</v>
@@ -19693,10 +19693,10 @@
         <v>3.48570515017433</v>
       </c>
       <c r="X50" t="n">
-        <v>0.153846153846154</v>
+        <v>0.08</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.392307692307692</v>
+        <v>0.145714285714286</v>
       </c>
       <c r="Z50" t="s">
         <v>147</v>
@@ -19785,10 +19785,10 @@
         <v>-0.709362398208279</v>
       </c>
       <c r="X51" t="n">
-        <v>0.492307692307692</v>
+        <v>0.256</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.469230769230769</v>
+        <v>0.174285714285714</v>
       </c>
       <c r="Z51" t="s">
         <v>149</v>
@@ -19877,10 +19877,10 @@
         <v>1.83537943753575</v>
       </c>
       <c r="X52" t="n">
-        <v>0.438461538461538</v>
+        <v>0.228</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.05384615384615</v>
+        <v>0.391428571428571</v>
       </c>
       <c r="Z52" t="s">
         <v>151</v>
@@ -19969,10 +19969,10 @@
         <v>-0.279740950937548</v>
       </c>
       <c r="X53" t="n">
-        <v>1.8</v>
+        <v>0.936</v>
       </c>
       <c r="Y53" t="n">
-        <v>2.59230769230769</v>
+        <v>0.962857142857143</v>
       </c>
       <c r="Z53" t="s">
         <v>153</v>
@@ -20061,10 +20061,10 @@
         <v>-0.440932057488709</v>
       </c>
       <c r="X54" t="n">
-        <v>0.538461538461538</v>
+        <v>0.28</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.646153846153846</v>
+        <v>0.24</v>
       </c>
       <c r="Z54" t="s">
         <v>155</v>
@@ -20153,10 +20153,10 @@
         <v>0.568463630837042</v>
       </c>
       <c r="X55" t="n">
-        <v>0.969230769230769</v>
+        <v>0.504</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.68461538461538</v>
+        <v>0.625714285714286</v>
       </c>
       <c r="Z55" t="s">
         <v>157</v>
@@ -20245,10 +20245,10 @@
         <v>2.16904703322151</v>
       </c>
       <c r="X56" t="n">
-        <v>0.315384615384615</v>
+        <v>0.164</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.638461538461538</v>
+        <v>0.237142857142857</v>
       </c>
       <c r="Z56" t="s">
         <v>161</v>
@@ -20337,10 +20337,10 @@
         <v>0.342919619198091</v>
       </c>
       <c r="X57" t="n">
-        <v>0.9</v>
+        <v>0.468</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.22307692307692</v>
+        <v>0.454285714285714</v>
       </c>
       <c r="Z57" t="s">
         <v>163</v>
@@ -20429,10 +20429,10 @@
         <v>-0.600798233755388</v>
       </c>
       <c r="X58" t="n">
-        <v>1.78461538461538</v>
+        <v>0.928</v>
       </c>
       <c r="Y58" t="n">
-        <v>2.43076923076923</v>
+        <v>0.902857142857143</v>
       </c>
       <c r="Z58" t="s">
         <v>165</v>
@@ -20521,10 +20521,10 @@
         <v>3.84178217834313</v>
       </c>
       <c r="X59" t="n">
-        <v>0.269230769230769</v>
+        <v>0.14</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.630769230769231</v>
+        <v>0.234285714285714</v>
       </c>
       <c r="Z59" t="s">
         <v>338</v>
@@ -20613,10 +20613,10 @@
         <v>0.040232165617315</v>
       </c>
       <c r="X60" t="n">
-        <v>0.815384615384615</v>
+        <v>0.424</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.1</v>
+        <v>0.408571428571429</v>
       </c>
       <c r="Z60" t="s">
         <v>167</v>
@@ -20705,10 +20705,10 @@
         <v>-0.50791408233571</v>
       </c>
       <c r="X61" t="n">
-        <v>0.430769230769231</v>
+        <v>0.224</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.523076923076923</v>
+        <v>0.194285714285714</v>
       </c>
       <c r="Z61" t="s">
         <v>169</v>
@@ -20797,10 +20797,10 @@
         <v>0.424371919055339</v>
       </c>
       <c r="X62" t="n">
-        <v>1.22307692307692</v>
+        <v>0.636</v>
       </c>
       <c r="Y62" t="n">
-        <v>2.23846153846154</v>
+        <v>0.831428571428571</v>
       </c>
       <c r="Z62" t="s">
         <v>171</v>
@@ -20889,10 +20889,10 @@
         <v>-1.01812418359029</v>
       </c>
       <c r="X63" t="n">
-        <v>0.384615384615385</v>
+        <v>0.2</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.546153846153846</v>
+        <v>0.202857142857143</v>
       </c>
       <c r="Z63" t="s">
         <v>173</v>
@@ -20981,10 +20981,10 @@
         <v>-0.872348321562245</v>
       </c>
       <c r="X64" t="n">
-        <v>1.49230769230769</v>
+        <v>0.776</v>
       </c>
       <c r="Y64" t="n">
-        <v>2.09230769230769</v>
+        <v>0.777142857142857</v>
       </c>
       <c r="Z64" t="s">
         <v>177</v>
@@ -21073,10 +21073,10 @@
         <v>4.71223059802595</v>
       </c>
       <c r="X65" t="n">
-        <v>0.530769230769231</v>
+        <v>0.276</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.24615384615385</v>
+        <v>0.462857142857143</v>
       </c>
       <c r="Z65" t="s">
         <v>179</v>
@@ -21165,10 +21165,10 @@
         <v>1.17288371487564</v>
       </c>
       <c r="X66" t="n">
-        <v>0.2</v>
+        <v>0.104</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.630769230769231</v>
+        <v>0.234285714285714</v>
       </c>
       <c r="Z66" t="s">
         <v>181</v>
@@ -21257,10 +21257,10 @@
         <v>-0.464565211729261</v>
       </c>
       <c r="X67" t="n">
-        <v>0.861538461538462</v>
+        <v>0.448</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.18461538461538</v>
+        <v>0.44</v>
       </c>
       <c r="Z67" t="s">
         <v>183</v>
@@ -21349,10 +21349,10 @@
         <v>0.307569751621131</v>
       </c>
       <c r="X68" t="n">
-        <v>0.453846153846154</v>
+        <v>0.236</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.23846153846154</v>
+        <v>0.46</v>
       </c>
       <c r="Z68" t="s">
         <v>185</v>
@@ -21441,10 +21441,10 @@
         <v>0.543292972110407</v>
       </c>
       <c r="X69" t="n">
-        <v>1.42307692307692</v>
+        <v>0.74</v>
       </c>
       <c r="Y69" t="n">
-        <v>2.19230769230769</v>
+        <v>0.814285714285714</v>
       </c>
       <c r="Z69" t="s">
         <v>189</v>
@@ -21533,10 +21533,10 @@
         <v>1.96478537044613</v>
       </c>
       <c r="X70" t="n">
-        <v>0.376923076923077</v>
+        <v>0.196</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.476923076923077</v>
+        <v>0.177142857142857</v>
       </c>
       <c r="Z70" t="s">
         <v>191</v>
@@ -21625,10 +21625,10 @@
         <v>-0.489799546931453</v>
       </c>
       <c r="X71" t="n">
-        <v>0.284615384615385</v>
+        <v>0.148</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.253846153846154</v>
+        <v>0.0942857142857143</v>
       </c>
       <c r="Z71" t="s">
         <v>195</v>
@@ -21717,10 +21717,10 @@
         <v>-1.69003558519017</v>
       </c>
       <c r="X72" t="n">
-        <v>1.06923076923077</v>
+        <v>0.556</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.23846153846154</v>
+        <v>0.46</v>
       </c>
       <c r="Z72" t="s">
         <v>197</v>
@@ -21809,10 +21809,10 @@
         <v>0.440453841407026</v>
       </c>
       <c r="X73" t="n">
-        <v>1.56923076923077</v>
+        <v>0.816</v>
       </c>
       <c r="Y73" t="n">
-        <v>2.46923076923077</v>
+        <v>0.917142857142857</v>
       </c>
       <c r="Z73" t="s">
         <v>199</v>
@@ -21901,10 +21901,10 @@
         <v>-0.454940514644536</v>
       </c>
       <c r="X74" t="n">
-        <v>1.38461538461538</v>
+        <v>0.72</v>
       </c>
       <c r="Y74" t="n">
-        <v>1.8</v>
+        <v>0.668571428571429</v>
       </c>
       <c r="Z74" t="s">
         <v>201</v>
@@ -21993,10 +21993,10 @@
         <v>-0.0484132761440555</v>
       </c>
       <c r="X75" t="n">
-        <v>1.02307692307692</v>
+        <v>0.532</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.55384615384615</v>
+        <v>0.577142857142857</v>
       </c>
       <c r="Z75" t="s">
         <v>203</v>
@@ -22085,10 +22085,10 @@
         <v>0.0114188739855404</v>
       </c>
       <c r="X76" t="n">
-        <v>0.338461538461538</v>
+        <v>0.176</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.784615384615385</v>
+        <v>0.291428571428571</v>
       </c>
       <c r="Z76" t="s">
         <v>205</v>
@@ -22177,10 +22177,10 @@
         <v>-0.281906419467933</v>
       </c>
       <c r="X77" t="n">
-        <v>1.8</v>
+        <v>0.936</v>
       </c>
       <c r="Y77" t="n">
-        <v>2.58461538461538</v>
+        <v>0.96</v>
       </c>
       <c r="Z77" t="s">
         <v>207</v>
@@ -22269,10 +22269,10 @@
         <v>-0.196363386648948</v>
       </c>
       <c r="X78" t="n">
-        <v>1.32307692307692</v>
+        <v>0.688</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.88461538461538</v>
+        <v>0.7</v>
       </c>
       <c r="Z78" t="s">
         <v>209</v>
@@ -22361,10 +22361,10 @@
         <v>-1.47046015345547</v>
       </c>
       <c r="X79" t="n">
-        <v>1.04615384615385</v>
+        <v>0.544</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.56153846153846</v>
+        <v>0.58</v>
       </c>
       <c r="Z79" t="s">
         <v>211</v>
@@ -22453,10 +22453,10 @@
         <v>-0.0933015594227588</v>
       </c>
       <c r="X80" t="n">
-        <v>1.16153846153846</v>
+        <v>0.604</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.63846153846154</v>
+        <v>0.608571428571429</v>
       </c>
       <c r="Z80" t="s">
         <v>213</v>
@@ -22545,10 +22545,10 @@
         <v>-0.693659842348073</v>
       </c>
       <c r="X81" t="n">
-        <v>0.961538461538462</v>
+        <v>0.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.25384615384615</v>
+        <v>0.465714285714286</v>
       </c>
       <c r="Z81" t="s">
         <v>215</v>
@@ -22637,10 +22637,10 @@
         <v>-0.601228733537037</v>
       </c>
       <c r="X82" t="n">
-        <v>1.52307692307692</v>
+        <v>0.792</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.90769230769231</v>
+        <v>0.708571428571429</v>
       </c>
       <c r="Z82" t="s">
         <v>217</v>
@@ -22729,10 +22729,10 @@
         <v>0.0462841304243957</v>
       </c>
       <c r="X83" t="n">
-        <v>1.19230769230769</v>
+        <v>0.62</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.6</v>
+        <v>0.594285714285714</v>
       </c>
       <c r="Z83" t="s">
         <v>219</v>
@@ -22821,10 +22821,10 @@
         <v>-0.231040856918584</v>
       </c>
       <c r="X84" t="n">
-        <v>0.169230769230769</v>
+        <v>0.088</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.553846153846154</v>
+        <v>0.205714285714286</v>
       </c>
       <c r="Z84" t="s">
         <v>340</v>
@@ -22913,10 +22913,10 @@
         <v>1.55376436472122</v>
       </c>
       <c r="X85" t="n">
-        <v>0.161538461538462</v>
+        <v>0.084</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.415384615384615</v>
+        <v>0.154285714285714</v>
       </c>
       <c r="Z85" t="s">
         <v>342</v>
@@ -23005,10 +23005,10 @@
         <v>-0.222411867897602</v>
       </c>
       <c r="X86" t="n">
-        <v>0.923076923076923</v>
+        <v>0.48</v>
       </c>
       <c r="Y86" t="n">
-        <v>1.49230769230769</v>
+        <v>0.554285714285714</v>
       </c>
       <c r="Z86" t="s">
         <v>223</v>
@@ -23097,10 +23097,10 @@
         <v>3.06095533126014</v>
       </c>
       <c r="X87" t="n">
-        <v>0.215384615384615</v>
+        <v>0.112</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.623076923076923</v>
+        <v>0.231428571428571</v>
       </c>
       <c r="Z87" t="s">
         <v>225</v>
@@ -23189,10 +23189,10 @@
         <v>2.76601530534378</v>
       </c>
       <c r="X88" t="n">
-        <v>0.2</v>
+        <v>0.104</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.584615384615385</v>
+        <v>0.217142857142857</v>
       </c>
       <c r="Z88" t="s">
         <v>227</v>
@@ -23281,10 +23281,10 @@
         <v>-0.188292462952289</v>
       </c>
       <c r="X89" t="n">
-        <v>0.892307692307692</v>
+        <v>0.464</v>
       </c>
       <c r="Y89" t="n">
-        <v>1.27692307692308</v>
+        <v>0.474285714285714</v>
       </c>
       <c r="Z89" t="s">
         <v>231</v>
@@ -23373,10 +23373,10 @@
         <v>-0.258587718718122</v>
       </c>
       <c r="X90" t="n">
-        <v>0.207692307692308</v>
+        <v>0.108</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.269230769230769</v>
+        <v>0.1</v>
       </c>
       <c r="Z90" t="s">
         <v>233</v>
@@ -23465,10 +23465,10 @@
         <v>0.299419839165334</v>
       </c>
       <c r="X91" t="n">
-        <v>0.653846153846154</v>
+        <v>0.34</v>
       </c>
       <c r="Y91" t="n">
-        <v>1.04615384615385</v>
+        <v>0.388571428571429</v>
       </c>
       <c r="Z91" t="s">
         <v>235</v>
@@ -23557,10 +23557,10 @@
         <v>-0.460370949714458</v>
       </c>
       <c r="X92" t="n">
-        <v>0.776923076923077</v>
+        <v>0.404</v>
       </c>
       <c r="Y92" t="n">
-        <v>1</v>
+        <v>0.371428571428571</v>
       </c>
       <c r="Z92" t="s">
         <v>237</v>
@@ -23649,10 +23649,10 @@
         <v>0.00262976211289685</v>
       </c>
       <c r="X93" t="n">
-        <v>0.523076923076923</v>
+        <v>0.272</v>
       </c>
       <c r="Y93" t="n">
-        <v>1.32307692307692</v>
+        <v>0.491428571428571</v>
       </c>
       <c r="Z93" t="s">
         <v>239</v>
@@ -23741,10 +23741,10 @@
         <v>1.16203363060081</v>
       </c>
       <c r="X94" t="n">
-        <v>0.346153846153846</v>
+        <v>0.18</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.8</v>
+        <v>0.297142857142857</v>
       </c>
       <c r="Z94" t="s">
         <v>241</v>
@@ -23833,10 +23833,10 @@
         <v>-0.341520140202334</v>
       </c>
       <c r="X95" t="n">
-        <v>0.876923076923077</v>
+        <v>0.456</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.969230769230769</v>
+        <v>0.36</v>
       </c>
       <c r="Z95" t="s">
         <v>243</v>
@@ -23925,10 +23925,10 @@
         <v>0.939465002089143</v>
       </c>
       <c r="X96" t="n">
-        <v>0.238461538461538</v>
+        <v>0.124</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.376923076923077</v>
+        <v>0.14</v>
       </c>
       <c r="Z96" t="s">
         <v>344</v>
@@ -24017,10 +24017,10 @@
         <v>-0.00000497368935275712</v>
       </c>
       <c r="X97" t="n">
-        <v>1.06153846153846</v>
+        <v>0.552</v>
       </c>
       <c r="Y97" t="n">
-        <v>1.73076923076923</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="Z97" t="s">
         <v>245</v>
@@ -24109,10 +24109,10 @@
         <v>0.686853624136941</v>
       </c>
       <c r="X98" t="n">
-        <v>0.707692307692308</v>
+        <v>0.368</v>
       </c>
       <c r="Y98" t="n">
-        <v>1.18461538461538</v>
+        <v>0.44</v>
       </c>
       <c r="Z98" t="s">
         <v>247</v>
@@ -24201,10 +24201,10 @@
         <v>0.497426748380721</v>
       </c>
       <c r="X99" t="n">
-        <v>1.26153846153846</v>
+        <v>0.656</v>
       </c>
       <c r="Y99" t="n">
-        <v>1.89230769230769</v>
+        <v>0.702857142857143</v>
       </c>
       <c r="Z99" t="s">
         <v>251</v>
@@ -24293,10 +24293,10 @@
         <v>-0.249246354591378</v>
       </c>
       <c r="X100" t="n">
-        <v>0.492307692307692</v>
+        <v>0.256</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.523076923076923</v>
+        <v>0.194285714285714</v>
       </c>
       <c r="Z100" t="s">
         <v>253</v>
@@ -24385,10 +24385,10 @@
         <v>0.584101070978916</v>
       </c>
       <c r="X101" t="n">
-        <v>0.723076923076923</v>
+        <v>0.376</v>
       </c>
       <c r="Y101" t="n">
-        <v>1.23076923076923</v>
+        <v>0.457142857142857</v>
       </c>
       <c r="Z101" t="s">
         <v>255</v>
@@ -24477,10 +24477,10 @@
         <v>0.61451909821809</v>
       </c>
       <c r="X102" t="n">
-        <v>0.284615384615385</v>
+        <v>0.148</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.384615384615385</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z102" t="s">
         <v>259</v>
@@ -24569,10 +24569,10 @@
         <v>-0.701194366781746</v>
       </c>
       <c r="X103" t="n">
-        <v>0.592307692307692</v>
+        <v>0.308</v>
       </c>
       <c r="Y103" t="n">
-        <v>1.06923076923077</v>
+        <v>0.397142857142857</v>
       </c>
       <c r="Z103" t="s">
         <v>263</v>
@@ -24661,10 +24661,10 @@
         <v>-1.72971893020166</v>
       </c>
       <c r="X104" t="n">
-        <v>0.284615384615385</v>
+        <v>0.148</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.238461538461538</v>
+        <v>0.0885714285714286</v>
       </c>
       <c r="Z104" t="s">
         <v>265</v>
@@ -24753,10 +24753,10 @@
         <v>-0.39606150266489</v>
       </c>
       <c r="X105" t="n">
-        <v>0.346153846153846</v>
+        <v>0.18</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.292307692307692</v>
+        <v>0.108571428571429</v>
       </c>
       <c r="Z105" t="s">
         <v>267</v>
@@ -24845,10 +24845,10 @@
         <v>0.761276326702829</v>
       </c>
       <c r="X106" t="n">
-        <v>0.253846153846154</v>
+        <v>0.132</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.638461538461538</v>
+        <v>0.237142857142857</v>
       </c>
       <c r="Z106" t="s">
         <v>269</v>
@@ -24937,10 +24937,10 @@
         <v>-0.526490493502208</v>
       </c>
       <c r="X107" t="n">
-        <v>0.807692307692308</v>
+        <v>0.42</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.930769230769231</v>
+        <v>0.345714285714286</v>
       </c>
       <c r="Z107" t="s">
         <v>275</v>
@@ -25029,10 +25029,10 @@
         <v>-2.5048895362771</v>
       </c>
       <c r="X108" t="n">
-        <v>0.330769230769231</v>
+        <v>0.172</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.0846153846153846</v>
+        <v>0.0314285714285714</v>
       </c>
       <c r="Z108" t="s">
         <v>277</v>
@@ -25121,10 +25121,10 @@
         <v>0.767880740586571</v>
       </c>
       <c r="X109" t="n">
-        <v>0.623076923076923</v>
+        <v>0.324</v>
       </c>
       <c r="Y109" t="n">
-        <v>1</v>
+        <v>0.371428571428571</v>
       </c>
       <c r="Z109" t="s">
         <v>281</v>
@@ -25213,10 +25213,10 @@
         <v>-0.425712410269928</v>
       </c>
       <c r="X110" t="n">
-        <v>1.67692307692308</v>
+        <v>0.872</v>
       </c>
       <c r="Y110" t="n">
-        <v>2.48461538461538</v>
+        <v>0.922857142857143</v>
       </c>
       <c r="Z110" t="s">
         <v>283</v>
@@ -25305,10 +25305,10 @@
         <v>0.888502269543205</v>
       </c>
       <c r="X111" t="n">
-        <v>0.492307692307692</v>
+        <v>0.256</v>
       </c>
       <c r="Y111" t="n">
-        <v>1.32307692307692</v>
+        <v>0.491428571428571</v>
       </c>
       <c r="Z111" t="s">
         <v>285</v>
@@ -25397,10 +25397,10 @@
         <v>0.347713238614509</v>
       </c>
       <c r="X112" t="n">
-        <v>1.13846153846154</v>
+        <v>0.592</v>
       </c>
       <c r="Y112" t="n">
-        <v>1.5</v>
+        <v>0.557142857142857</v>
       </c>
       <c r="Z112" t="s">
         <v>287</v>
@@ -25489,10 +25489,10 @@
         <v>-0.166070014884249</v>
       </c>
       <c r="X113" t="n">
-        <v>0.553846153846154</v>
+        <v>0.288</v>
       </c>
       <c r="Y113" t="n">
-        <v>1.12307692307692</v>
+        <v>0.417142857142857</v>
       </c>
       <c r="Z113" t="s">
         <v>289</v>
@@ -25581,10 +25581,10 @@
         <v>2.43174698673069</v>
       </c>
       <c r="X114" t="n">
-        <v>0.430769230769231</v>
+        <v>0.224</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.869230769230769</v>
+        <v>0.322857142857143</v>
       </c>
       <c r="Z114" t="s">
         <v>291</v>
@@ -25673,10 +25673,10 @@
         <v>1.39322458633051</v>
       </c>
       <c r="X115" t="n">
-        <v>0.415384615384615</v>
+        <v>0.216</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.953846153846154</v>
+        <v>0.354285714285714</v>
       </c>
       <c r="Z115" t="s">
         <v>293</v>
@@ -25765,10 +25765,10 @@
         <v>4.80495035968191</v>
       </c>
       <c r="X116" t="n">
-        <v>0.0461538461538462</v>
+        <v>0.024</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.9</v>
+        <v>0.334285714285714</v>
       </c>
       <c r="Z116" t="s">
         <v>346</v>
@@ -25857,10 +25857,10 @@
         <v>-0.31408630957844</v>
       </c>
       <c r="X117" t="n">
-        <v>0.184615384615385</v>
+        <v>0.096</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.553846153846154</v>
+        <v>0.205714285714286</v>
       </c>
       <c r="Z117" t="s">
         <v>348</v>
@@ -25949,10 +25949,10 @@
         <v>0.562493267129197</v>
       </c>
       <c r="X118" t="n">
-        <v>1.80769230769231</v>
+        <v>0.94</v>
       </c>
       <c r="Y118" t="n">
-        <v>2.63076923076923</v>
+        <v>0.977142857142857</v>
       </c>
       <c r="Z118" t="s">
         <v>295</v>
@@ -26041,10 +26041,10 @@
         <v>0.164028514252992</v>
       </c>
       <c r="X119" t="n">
-        <v>1.45384615384615</v>
+        <v>0.756</v>
       </c>
       <c r="Y119" t="n">
-        <v>2.2</v>
+        <v>0.817142857142857</v>
       </c>
       <c r="Z119" t="s">
         <v>297</v>
@@ -26133,10 +26133,10 @@
         <v>0.0546291171196913</v>
       </c>
       <c r="X120" t="n">
-        <v>1.19230769230769</v>
+        <v>0.62</v>
       </c>
       <c r="Y120" t="n">
-        <v>1.82307692307692</v>
+        <v>0.677142857142857</v>
       </c>
       <c r="Z120" t="s">
         <v>299</v>
@@ -26225,10 +26225,10 @@
         <v>-1.83487237541354</v>
       </c>
       <c r="X121" t="n">
-        <v>0.2</v>
+        <v>0.104</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.138461538461538</v>
+        <v>0.0514285714285714</v>
       </c>
       <c r="Z121" t="s">
         <v>301</v>
@@ -26317,10 +26317,10 @@
         <v>-2.44586183243315</v>
       </c>
       <c r="X122" t="n">
-        <v>0.476923076923077</v>
+        <v>0.248</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.476923076923077</v>
+        <v>0.177142857142857</v>
       </c>
       <c r="Z122" t="s">
         <v>305</v>
@@ -26409,10 +26409,10 @@
         <v>1.10222005155195</v>
       </c>
       <c r="X123" t="n">
-        <v>0.284615384615385</v>
+        <v>0.148</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.830769230769231</v>
+        <v>0.308571428571429</v>
       </c>
       <c r="Z123" t="s">
         <v>307</v>
@@ -26501,10 +26501,10 @@
         <v>-0.950835389678099</v>
       </c>
       <c r="X124" t="n">
-        <v>0.261538461538462</v>
+        <v>0.136</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.346153846153846</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Z124" t="s">
         <v>309</v>
@@ -26593,10 +26593,10 @@
         <v>1.18278574816391</v>
       </c>
       <c r="X125" t="n">
-        <v>0.915384615384615</v>
+        <v>0.476</v>
       </c>
       <c r="Y125" t="n">
-        <v>1.34615384615385</v>
+        <v>0.5</v>
       </c>
       <c r="Z125" t="s">
         <v>311</v>
@@ -26685,10 +26685,10 @@
         <v>0.0394096708471747</v>
       </c>
       <c r="X126" t="n">
-        <v>1.25384615384615</v>
+        <v>0.652</v>
       </c>
       <c r="Y126" t="n">
-        <v>1.60769230769231</v>
+        <v>0.597142857142857</v>
       </c>
       <c r="Z126" t="s">
         <v>313</v>
@@ -26777,10 +26777,10 @@
         <v>-0.564799342608981</v>
       </c>
       <c r="X127" t="n">
-        <v>1.13076923076923</v>
+        <v>0.588</v>
       </c>
       <c r="Y127" t="n">
-        <v>1.53076923076923</v>
+        <v>0.568571428571429</v>
       </c>
       <c r="Z127" t="s">
         <v>315</v>
@@ -26869,10 +26869,10 @@
         <v>-0.666352054111905</v>
       </c>
       <c r="X128" t="n">
-        <v>0.815384615384615</v>
+        <v>0.424</v>
       </c>
       <c r="Y128" t="n">
-        <v>1.22307692307692</v>
+        <v>0.454285714285714</v>
       </c>
       <c r="Z128" t="s">
         <v>317</v>
@@ -26961,10 +26961,10 @@
         <v>0.948363156144855</v>
       </c>
       <c r="X129" t="n">
-        <v>0.3</v>
+        <v>0.156</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.438461538461538</v>
+        <v>0.162857142857143</v>
       </c>
       <c r="Z129" t="s">
         <v>321</v>
@@ -27053,10 +27053,10 @@
         <v>-0.860259364250595</v>
       </c>
       <c r="X130" t="n">
-        <v>1.68461538461538</v>
+        <v>0.876</v>
       </c>
       <c r="Y130" t="n">
-        <v>2.3</v>
+        <v>0.854285714285714</v>
       </c>
       <c r="Z130" t="s">
         <v>323</v>
@@ -27145,10 +27145,10 @@
         <v>0.322046848979723</v>
       </c>
       <c r="X131" t="n">
-        <v>0.230769230769231</v>
+        <v>0.12</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.284615384615385</v>
+        <v>0.105714285714286</v>
       </c>
       <c r="Z131" t="s">
         <v>325</v>
@@ -27343,10 +27343,10 @@
         <v>1.3850232678124</v>
       </c>
       <c r="X2" t="n">
-        <v>0.38562091503268</v>
+        <v>0.366459627329193</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.28758169934641</v>
+        <v>0.562857142857143</v>
       </c>
       <c r="Z2" t="s">
         <v>31</v>
@@ -27435,10 +27435,10 @@
         <v>-2.8779828482967</v>
       </c>
       <c r="X3" t="n">
-        <v>0.398692810457516</v>
+        <v>0.37888198757764</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.228758169934641</v>
+        <v>0.1</v>
       </c>
       <c r="Z3" t="s">
         <v>33</v>
@@ -27527,10 +27527,10 @@
         <v>-0.535582306553668</v>
       </c>
       <c r="X4" t="n">
-        <v>0.287581699346405</v>
+        <v>0.273291925465839</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.490196078431373</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Z4" t="s">
         <v>35</v>
@@ -27619,10 +27619,10 @@
         <v>0.403765942501251</v>
       </c>
       <c r="X5" t="n">
-        <v>0.777777777777778</v>
+        <v>0.739130434782609</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.29411764705882</v>
+        <v>0.565714285714286</v>
       </c>
       <c r="Z5" t="s">
         <v>37</v>
@@ -27711,10 +27711,10 @@
         <v>0.000675083989999159</v>
       </c>
       <c r="X6" t="n">
-        <v>0.588235294117647</v>
+        <v>0.559006211180124</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.22222222222222</v>
+        <v>0.534285714285714</v>
       </c>
       <c r="Z6" t="s">
         <v>39</v>
@@ -27803,10 +27803,10 @@
         <v>-0.258734569849614</v>
       </c>
       <c r="X7" t="n">
-        <v>1.02614379084967</v>
+        <v>0.975155279503106</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.86928104575163</v>
+        <v>0.817142857142857</v>
       </c>
       <c r="Z7" t="s">
         <v>41</v>
@@ -27895,10 +27895,10 @@
         <v>0.494644063740013</v>
       </c>
       <c r="X8" t="n">
-        <v>0.235294117647059</v>
+        <v>0.22360248447205</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.196078431372549</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="Z8" t="s">
         <v>43</v>
@@ -27987,10 +27987,10 @@
         <v>-0.296662559400409</v>
       </c>
       <c r="X9" t="n">
-        <v>0.333333333333333</v>
+        <v>0.316770186335404</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.477124183006536</v>
+        <v>0.208571428571429</v>
       </c>
       <c r="Z9" t="s">
         <v>45</v>
@@ -28079,10 +28079,10 @@
         <v>0.0221256682326609</v>
       </c>
       <c r="X10" t="n">
-        <v>0.679738562091503</v>
+        <v>0.645962732919255</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.13725490196078</v>
+        <v>0.497142857142857</v>
       </c>
       <c r="Z10" t="s">
         <v>47</v>
@@ -28171,10 +28171,10 @@
         <v>1.62165694308013</v>
       </c>
       <c r="X11" t="n">
-        <v>0.215686274509804</v>
+        <v>0.204968944099379</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.516339869281046</v>
+        <v>0.225714285714286</v>
       </c>
       <c r="Z11" t="s">
         <v>49</v>
@@ -28263,10 +28263,10 @@
         <v>0.0770114137011266</v>
       </c>
       <c r="X12" t="n">
-        <v>0.764705882352941</v>
+        <v>0.726708074534162</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.31372549019608</v>
+        <v>0.574285714285714</v>
       </c>
       <c r="Z12" t="s">
         <v>51</v>
@@ -28355,10 +28355,10 @@
         <v>0.885855491867541</v>
       </c>
       <c r="X13" t="n">
-        <v>0.568627450980392</v>
+        <v>0.540372670807453</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.55555555555556</v>
+        <v>0.68</v>
       </c>
       <c r="Z13" t="s">
         <v>53</v>
@@ -28447,10 +28447,10 @@
         <v>-0.364162951222353</v>
       </c>
       <c r="X14" t="n">
-        <v>1.03921568627451</v>
+        <v>0.987577639751553</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.15032679738562</v>
+        <v>0.94</v>
       </c>
       <c r="Z14" t="s">
         <v>55</v>
@@ -28539,10 +28539,10 @@
         <v>2.0996674601841</v>
       </c>
       <c r="X15" t="n">
-        <v>0.241830065359477</v>
+        <v>0.229813664596273</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.464052287581699</v>
+        <v>0.202857142857143</v>
       </c>
       <c r="Z15" t="s">
         <v>57</v>
@@ -28631,10 +28631,10 @@
         <v>1.26041580451388</v>
       </c>
       <c r="X16" t="n">
-        <v>0.522875816993464</v>
+        <v>0.496894409937888</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.41176470588235</v>
+        <v>0.617142857142857</v>
       </c>
       <c r="Z16" t="s">
         <v>59</v>
@@ -28723,10 +28723,10 @@
         <v>-0.749150206162145</v>
       </c>
       <c r="X17" t="n">
-        <v>0.61437908496732</v>
+        <v>0.583850931677019</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.673202614379085</v>
+        <v>0.294285714285714</v>
       </c>
       <c r="Z17" t="s">
         <v>61</v>
@@ -28815,10 +28815,10 @@
         <v>0.23219800612743</v>
       </c>
       <c r="X18" t="n">
-        <v>0.803921568627451</v>
+        <v>0.763975155279503</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.60130718954248</v>
+        <v>0.7</v>
       </c>
       <c r="Z18" t="s">
         <v>63</v>
@@ -28907,10 +28907,10 @@
         <v>0.431942446193703</v>
       </c>
       <c r="X19" t="n">
-        <v>0.581699346405229</v>
+        <v>0.552795031055901</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.810457516339869</v>
+        <v>0.354285714285714</v>
       </c>
       <c r="Z19" t="s">
         <v>65</v>
@@ -28999,10 +28999,10 @@
         <v>-0.660382417499913</v>
       </c>
       <c r="X20" t="n">
-        <v>1.03921568627451</v>
+        <v>0.987577639751553</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.71241830065359</v>
+        <v>0.748571428571429</v>
       </c>
       <c r="Z20" t="s">
         <v>67</v>
@@ -29091,10 +29091,10 @@
         <v>-2.54677943985878</v>
       </c>
       <c r="X21" t="n">
-        <v>0.124183006535948</v>
+        <v>0.118012422360248</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.117647058823529</v>
+        <v>0.0514285714285714</v>
       </c>
       <c r="Z21" t="s">
         <v>69</v>
@@ -29183,10 +29183,10 @@
         <v>-1.341876717951</v>
       </c>
       <c r="X22" t="n">
-        <v>0.222222222222222</v>
+        <v>0.211180124223602</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.150326797385621</v>
+        <v>0.0657142857142857</v>
       </c>
       <c r="Z22" t="s">
         <v>71</v>
@@ -29275,10 +29275,10 @@
         <v>-0.466113428324726</v>
       </c>
       <c r="X23" t="n">
-        <v>1.00653594771242</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.02614379084967</v>
+        <v>0.885714285714286</v>
       </c>
       <c r="Z23" t="s">
         <v>73</v>
@@ -29367,10 +29367,10 @@
         <v>-0.299630901321749</v>
       </c>
       <c r="X24" t="n">
-        <v>0.366013071895425</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.568627450980392</v>
+        <v>0.248571428571429</v>
       </c>
       <c r="Z24" t="s">
         <v>75</v>
@@ -29459,10 +29459,10 @@
         <v>0.517968128906747</v>
       </c>
       <c r="X25" t="n">
-        <v>0.196078431372549</v>
+        <v>0.186335403726708</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.464052287581699</v>
+        <v>0.202857142857143</v>
       </c>
       <c r="Z25" t="s">
         <v>77</v>
@@ -29551,10 +29551,10 @@
         <v>-0.116549152394157</v>
       </c>
       <c r="X26" t="n">
-        <v>1.05228758169935</v>
+        <v>1</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.1437908496732</v>
+        <v>0.937142857142857</v>
       </c>
       <c r="Z26" t="s">
         <v>79</v>
@@ -29643,10 +29643,10 @@
         <v>-0.669419178798002</v>
       </c>
       <c r="X27" t="n">
-        <v>0.830065359477124</v>
+        <v>0.788819875776398</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.10457516339869</v>
+        <v>0.482857142857143</v>
       </c>
       <c r="Z27" t="s">
         <v>81</v>
@@ -29735,10 +29735,10 @@
         <v>0.789989116037311</v>
       </c>
       <c r="X28" t="n">
-        <v>0.895424836601307</v>
+        <v>0.850931677018634</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.93464052287582</v>
+        <v>0.845714285714286</v>
       </c>
       <c r="Z28" t="s">
         <v>83</v>
@@ -29827,10 +29827,10 @@
         <v>0.182432641218999</v>
       </c>
       <c r="X29" t="n">
-        <v>0.888888888888889</v>
+        <v>0.84472049689441</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.15032679738562</v>
+        <v>0.502857142857143</v>
       </c>
       <c r="Z29" t="s">
         <v>85</v>
@@ -29919,10 +29919,10 @@
         <v>0.229485150106202</v>
       </c>
       <c r="X30" t="n">
-        <v>1.05228758169935</v>
+        <v>1</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.20915032679739</v>
+        <v>0.965714285714286</v>
       </c>
       <c r="Z30" t="s">
         <v>87</v>
@@ -30011,10 +30011,10 @@
         <v>-0.302385048250599</v>
       </c>
       <c r="X31" t="n">
-        <v>1.01960784313725</v>
+        <v>0.968944099378882</v>
       </c>
       <c r="Y31" t="n">
-        <v>2</v>
+        <v>0.874285714285714</v>
       </c>
       <c r="Z31" t="s">
         <v>89</v>
@@ -30103,10 +30103,10 @@
         <v>-0.779813685004416</v>
       </c>
       <c r="X32" t="n">
-        <v>0.790849673202614</v>
+        <v>0.751552795031056</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.823529411764706</v>
+        <v>0.36</v>
       </c>
       <c r="Z32" t="s">
         <v>91</v>
@@ -30195,10 +30195,10 @@
         <v>-0.449292638877317</v>
       </c>
       <c r="X33" t="n">
-        <v>0.281045751633987</v>
+        <v>0.267080745341615</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.156862745098039</v>
+        <v>0.0685714285714286</v>
       </c>
       <c r="Z33" t="s">
         <v>93</v>
@@ -30287,10 +30287,10 @@
         <v>-0.481902268287385</v>
       </c>
       <c r="X34" t="n">
-        <v>0.784313725490196</v>
+        <v>0.745341614906832</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.915032679738562</v>
+        <v>0.4</v>
       </c>
       <c r="Z34" t="s">
         <v>95</v>
@@ -30379,10 +30379,10 @@
         <v>-1.19018448009577</v>
       </c>
       <c r="X35" t="n">
-        <v>0.411764705882353</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.529411764705882</v>
+        <v>0.231428571428571</v>
       </c>
       <c r="Z35" t="s">
         <v>97</v>
@@ -30471,10 +30471,10 @@
         <v>-1.44105210832443</v>
       </c>
       <c r="X36" t="n">
-        <v>0.156862745098039</v>
+        <v>0.149068322981366</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.169934640522876</v>
+        <v>0.0742857142857143</v>
       </c>
       <c r="Z36" t="s">
         <v>99</v>
@@ -30563,10 +30563,10 @@
         <v>-1.28897346353943</v>
       </c>
       <c r="X37" t="n">
-        <v>0.869281045751634</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="Y37" t="n">
-        <v>1</v>
+        <v>0.437142857142857</v>
       </c>
       <c r="Z37" t="s">
         <v>101</v>
@@ -30655,10 +30655,10 @@
         <v>-1.29499185552866</v>
       </c>
       <c r="X38" t="n">
-        <v>0.718954248366013</v>
+        <v>0.683229813664596</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.647058823529412</v>
+        <v>0.282857142857143</v>
       </c>
       <c r="Z38" t="s">
         <v>103</v>
@@ -30747,10 +30747,10 @@
         <v>-0.3010887733009</v>
       </c>
       <c r="X39" t="n">
-        <v>0.464052287581699</v>
+        <v>0.440993788819876</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.320261437908497</v>
+        <v>0.14</v>
       </c>
       <c r="Z39" t="s">
         <v>105</v>
@@ -30839,10 +30839,10 @@
         <v>0.181341132041999</v>
       </c>
       <c r="X40" t="n">
-        <v>0.437908496732026</v>
+        <v>0.416149068322981</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.40522875816993</v>
+        <v>0.614285714285714</v>
       </c>
       <c r="Z40" t="s">
         <v>107</v>
@@ -30931,10 +30931,10 @@
         <v>-1.62491798263978</v>
       </c>
       <c r="X41" t="n">
-        <v>0.973856209150327</v>
+        <v>0.925465838509317</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.47058823529412</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="Z41" t="s">
         <v>109</v>
@@ -31023,10 +31023,10 @@
         <v>0.124875075919918</v>
       </c>
       <c r="X42" t="n">
-        <v>0.947712418300654</v>
+        <v>0.900621118012422</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.63398692810458</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="Z42" t="s">
         <v>111</v>
@@ -31115,10 +31115,10 @@
         <v>0.130667379951081</v>
       </c>
       <c r="X43" t="n">
-        <v>0.679738562091503</v>
+        <v>0.645962732919255</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.843137254901961</v>
+        <v>0.368571428571429</v>
       </c>
       <c r="Z43" t="s">
         <v>113</v>
@@ -31207,10 +31207,10 @@
         <v>-0.92726355002731</v>
       </c>
       <c r="X44" t="n">
-        <v>1.00653594771242</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.79738562091503</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="Z44" t="s">
         <v>115</v>
@@ -31299,10 +31299,10 @@
         <v>2.21340817114065</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0915032679738562</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.601307189542484</v>
+        <v>0.262857142857143</v>
       </c>
       <c r="Z45" t="s">
         <v>336</v>
@@ -31391,10 +31391,10 @@
         <v>0.197857150609246</v>
       </c>
       <c r="X46" t="n">
-        <v>0.30718954248366</v>
+        <v>0.291925465838509</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.320261437908497</v>
+        <v>0.14</v>
       </c>
       <c r="Z46" t="s">
         <v>117</v>
@@ -31483,10 +31483,10 @@
         <v>2.15482369136343</v>
       </c>
       <c r="X47" t="n">
-        <v>0.333333333333333</v>
+        <v>0.316770186335404</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.2156862745098</v>
+        <v>0.531428571428571</v>
       </c>
       <c r="Z47" t="s">
         <v>119</v>
@@ -31575,10 +31575,10 @@
         <v>-3.89096413451483</v>
       </c>
       <c r="X48" t="n">
-        <v>0.215686274509804</v>
+        <v>0.204968944099379</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.196078431372549</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="Z48" t="s">
         <v>121</v>
@@ -31667,10 +31667,10 @@
         <v>0.429092086012911</v>
       </c>
       <c r="X49" t="n">
-        <v>1.04575163398693</v>
+        <v>0.993788819875776</v>
       </c>
       <c r="Y49" t="n">
-        <v>2.11111111111111</v>
+        <v>0.922857142857143</v>
       </c>
       <c r="Z49" t="s">
         <v>123</v>
@@ -31759,10 +31759,10 @@
         <v>0.472076592322112</v>
       </c>
       <c r="X50" t="n">
-        <v>0.209150326797386</v>
+        <v>0.198757763975155</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.431372549019608</v>
+        <v>0.188571428571429</v>
       </c>
       <c r="Z50" t="s">
         <v>125</v>
@@ -31851,10 +31851,10 @@
         <v>-0.533486938531726</v>
       </c>
       <c r="X51" t="n">
-        <v>0.535947712418301</v>
+        <v>0.509316770186335</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.16339869281046</v>
+        <v>0.508571428571429</v>
       </c>
       <c r="Z51" t="s">
         <v>127</v>
@@ -31943,10 +31943,10 @@
         <v>1.51465363195665</v>
       </c>
       <c r="X52" t="n">
-        <v>0.30718954248366</v>
+        <v>0.291925465838509</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.640522875816993</v>
+        <v>0.28</v>
       </c>
       <c r="Z52" t="s">
         <v>129</v>
@@ -32035,10 +32035,10 @@
         <v>6.67076597237864</v>
       </c>
       <c r="X53" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.0372670807453416</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.986928104575163</v>
+        <v>0.431428571428571</v>
       </c>
       <c r="Z53" t="s">
         <v>131</v>
@@ -32127,10 +32127,10 @@
         <v>-1.4052474550979</v>
       </c>
       <c r="X54" t="n">
-        <v>0.30718954248366</v>
+        <v>0.291925465838509</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.287581699346405</v>
+        <v>0.125714285714286</v>
       </c>
       <c r="Z54" t="s">
         <v>133</v>
@@ -32219,10 +32219,10 @@
         <v>0.00980682589388412</v>
       </c>
       <c r="X55" t="n">
-        <v>0.516339869281046</v>
+        <v>0.490683229813665</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.10457516339869</v>
+        <v>0.482857142857143</v>
       </c>
       <c r="Z55" t="s">
         <v>135</v>
@@ -32311,10 +32311,10 @@
         <v>-0.775010953467841</v>
       </c>
       <c r="X56" t="n">
-        <v>0.895424836601307</v>
+        <v>0.850931677018634</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.3921568627451</v>
+        <v>0.608571428571429</v>
       </c>
       <c r="Z56" t="s">
         <v>137</v>
@@ -32403,10 +32403,10 @@
         <v>1.90492359380666</v>
       </c>
       <c r="X57" t="n">
-        <v>0.568627450980392</v>
+        <v>0.540372670807453</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.83006535947712</v>
+        <v>0.8</v>
       </c>
       <c r="Z57" t="s">
         <v>139</v>
@@ -32495,10 +32495,10 @@
         <v>-1.95514585944526</v>
       </c>
       <c r="X58" t="n">
-        <v>0.222222222222222</v>
+        <v>0.211180124223602</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.117647058823529</v>
+        <v>0.0514285714285714</v>
       </c>
       <c r="Z58" t="s">
         <v>141</v>
@@ -32587,10 +32587,10 @@
         <v>-0.969836578871116</v>
       </c>
       <c r="X59" t="n">
-        <v>0.366013071895425</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.30718954248366</v>
+        <v>0.134285714285714</v>
       </c>
       <c r="Z59" t="s">
         <v>143</v>
@@ -32679,10 +32679,10 @@
         <v>-0.685382733841773</v>
       </c>
       <c r="X60" t="n">
-        <v>0.339869281045752</v>
+        <v>0.322981366459627</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.254901960784314</v>
+        <v>0.111428571428571</v>
       </c>
       <c r="Z60" t="s">
         <v>145</v>
@@ -32771,10 +32771,10 @@
         <v>1.54956047238488</v>
       </c>
       <c r="X61" t="n">
-        <v>0.313725490196078</v>
+        <v>0.298136645962733</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.333333333333333</v>
+        <v>0.145714285714286</v>
       </c>
       <c r="Z61" t="s">
         <v>147</v>
@@ -32863,10 +32863,10 @@
         <v>-1.42548705817304</v>
       </c>
       <c r="X62" t="n">
-        <v>0.42483660130719</v>
+        <v>0.403726708074534</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.398692810457516</v>
+        <v>0.174285714285714</v>
       </c>
       <c r="Z62" t="s">
         <v>149</v>
@@ -32955,10 +32955,10 @@
         <v>5.00240642557166</v>
       </c>
       <c r="X63" t="n">
-        <v>0.0457516339869281</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.895424836601307</v>
+        <v>0.391428571428571</v>
       </c>
       <c r="Z63" t="s">
         <v>151</v>
@@ -33047,10 +33047,10 @@
         <v>-0.861311392788405</v>
       </c>
       <c r="X64" t="n">
-        <v>1.05228758169935</v>
+        <v>1</v>
       </c>
       <c r="Y64" t="n">
-        <v>2.20261437908497</v>
+        <v>0.962857142857143</v>
       </c>
       <c r="Z64" t="s">
         <v>153</v>
@@ -33139,10 +33139,10 @@
         <v>-1.13916959426672</v>
       </c>
       <c r="X65" t="n">
-        <v>0.673202614379085</v>
+        <v>0.639751552795031</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.549019607843137</v>
+        <v>0.24</v>
       </c>
       <c r="Z65" t="s">
         <v>155</v>
@@ -33231,10 +33231,10 @@
         <v>-0.930841142314397</v>
       </c>
       <c r="X66" t="n">
-        <v>0.862745098039216</v>
+        <v>0.819875776397516</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.43137254901961</v>
+        <v>0.625714285714286</v>
       </c>
       <c r="Z66" t="s">
         <v>157</v>
@@ -33323,10 +33323,10 @@
         <v>-2.22947291214715</v>
       </c>
       <c r="X67" t="n">
-        <v>0.281045751633987</v>
+        <v>0.267080745341615</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.156862745098039</v>
+        <v>0.0685714285714286</v>
       </c>
       <c r="Z67" t="s">
         <v>159</v>
@@ -33415,10 +33415,10 @@
         <v>0.010183484259395</v>
       </c>
       <c r="X68" t="n">
-        <v>0.457516339869281</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.542483660130719</v>
+        <v>0.237142857142857</v>
       </c>
       <c r="Z68" t="s">
         <v>161</v>
@@ -33507,10 +33507,10 @@
         <v>-1.0159051273768</v>
       </c>
       <c r="X69" t="n">
-        <v>0.895424836601307</v>
+        <v>0.850931677018634</v>
       </c>
       <c r="Y69" t="n">
-        <v>1.03921568627451</v>
+        <v>0.454285714285714</v>
       </c>
       <c r="Z69" t="s">
         <v>163</v>
@@ -33599,10 +33599,10 @@
         <v>-0.782287773349036</v>
       </c>
       <c r="X70" t="n">
-        <v>1.02614379084967</v>
+        <v>0.975155279503106</v>
       </c>
       <c r="Y70" t="n">
-        <v>2.06535947712418</v>
+        <v>0.902857142857143</v>
       </c>
       <c r="Z70" t="s">
         <v>165</v>
@@ -33691,10 +33691,10 @@
         <v>1.65967948512932</v>
       </c>
       <c r="X71" t="n">
-        <v>0.143790849673203</v>
+        <v>0.136645962732919</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.535947712418301</v>
+        <v>0.234285714285714</v>
       </c>
       <c r="Z71" t="s">
         <v>338</v>
@@ -33783,10 +33783,10 @@
         <v>-1.04569135743194</v>
       </c>
       <c r="X72" t="n">
-        <v>0.803921568627451</v>
+        <v>0.763975155279503</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.934640522875817</v>
+        <v>0.408571428571429</v>
       </c>
       <c r="Z72" t="s">
         <v>167</v>
@@ -33875,10 +33875,10 @@
         <v>-1.61925992842712</v>
       </c>
       <c r="X73" t="n">
-        <v>0.607843137254902</v>
+        <v>0.577639751552795</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.444444444444444</v>
+        <v>0.194285714285714</v>
       </c>
       <c r="Z73" t="s">
         <v>169</v>
@@ -33967,10 +33967,10 @@
         <v>-0.429499353333946</v>
       </c>
       <c r="X74" t="n">
-        <v>0.954248366013072</v>
+        <v>0.906832298136646</v>
       </c>
       <c r="Y74" t="n">
-        <v>1.90196078431373</v>
+        <v>0.831428571428571</v>
       </c>
       <c r="Z74" t="s">
         <v>171</v>
@@ -34059,10 +34059,10 @@
         <v>0.697193519573535</v>
       </c>
       <c r="X75" t="n">
-        <v>0.333333333333333</v>
+        <v>0.316770186335404</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.464052287581699</v>
+        <v>0.202857142857143</v>
       </c>
       <c r="Z75" t="s">
         <v>173</v>
@@ -34151,10 +34151,10 @@
         <v>-2.59299742023386</v>
       </c>
       <c r="X76" t="n">
-        <v>0.150326797385621</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.169934640522876</v>
+        <v>0.0742857142857143</v>
       </c>
       <c r="Z76" t="s">
         <v>175</v>
@@ -34243,10 +34243,10 @@
         <v>-0.427299908337074</v>
       </c>
       <c r="X77" t="n">
-        <v>1.01307189542484</v>
+        <v>0.962732919254658</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.77777777777778</v>
+        <v>0.777142857142857</v>
       </c>
       <c r="Z77" t="s">
         <v>177</v>
@@ -34335,10 +34335,10 @@
         <v>0.386632521673256</v>
       </c>
       <c r="X78" t="n">
-        <v>0.26797385620915</v>
+        <v>0.254658385093168</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.05882352941176</v>
+        <v>0.462857142857143</v>
       </c>
       <c r="Z78" t="s">
         <v>179</v>
@@ -34427,10 +34427,10 @@
         <v>-0.367392044914969</v>
       </c>
       <c r="X79" t="n">
-        <v>0.483660130718954</v>
+        <v>0.459627329192547</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.535947712418301</v>
+        <v>0.234285714285714</v>
       </c>
       <c r="Z79" t="s">
         <v>181</v>
@@ -34519,10 +34519,10 @@
         <v>-0.40284428385687</v>
       </c>
       <c r="X80" t="n">
-        <v>0.843137254901961</v>
+        <v>0.801242236024845</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.00653594771242</v>
+        <v>0.44</v>
       </c>
       <c r="Z80" t="s">
         <v>183</v>
@@ -34611,10 +34611,10 @@
         <v>0.567913255075787</v>
       </c>
       <c r="X81" t="n">
-        <v>0.333333333333333</v>
+        <v>0.316770186335404</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.05228758169935</v>
+        <v>0.46</v>
       </c>
       <c r="Z81" t="s">
         <v>185</v>
@@ -34703,10 +34703,10 @@
         <v>-1.84498486200158</v>
       </c>
       <c r="X82" t="n">
-        <v>0.300653594771242</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.379084967320261</v>
+        <v>0.165714285714286</v>
       </c>
       <c r="Z82" t="s">
         <v>187</v>
@@ -34795,10 +34795,10 @@
         <v>2.63417310788061</v>
       </c>
       <c r="X83" t="n">
-        <v>0.535947712418301</v>
+        <v>0.509316770186335</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.86274509803922</v>
+        <v>0.814285714285714</v>
       </c>
       <c r="Z83" t="s">
         <v>189</v>
@@ -34887,10 +34887,10 @@
         <v>0.606226315515416</v>
       </c>
       <c r="X84" t="n">
-        <v>0.352941176470588</v>
+        <v>0.335403726708075</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.405228758169935</v>
+        <v>0.177142857142857</v>
       </c>
       <c r="Z84" t="s">
         <v>191</v>
@@ -34979,10 +34979,10 @@
         <v>-1.60457305867322</v>
       </c>
       <c r="X85" t="n">
-        <v>0.594771241830065</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.65359477124183</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Z85" t="s">
         <v>193</v>
@@ -35071,10 +35071,10 @@
         <v>-1.43335404971591</v>
       </c>
       <c r="X86" t="n">
-        <v>0.248366013071895</v>
+        <v>0.236024844720497</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.215686274509804</v>
+        <v>0.0942857142857143</v>
       </c>
       <c r="Z86" t="s">
         <v>195</v>
@@ -35163,10 +35163,10 @@
         <v>3.58314428747445</v>
       </c>
       <c r="X87" t="n">
-        <v>0.254901960784314</v>
+        <v>0.242236024844721</v>
       </c>
       <c r="Y87" t="n">
-        <v>1.05228758169935</v>
+        <v>0.46</v>
       </c>
       <c r="Z87" t="s">
         <v>197</v>
@@ -35255,10 +35255,10 @@
         <v>0.00161724821274001</v>
       </c>
       <c r="X88" t="n">
-        <v>1</v>
+        <v>0.950310559006211</v>
       </c>
       <c r="Y88" t="n">
-        <v>2.09803921568627</v>
+        <v>0.917142857142857</v>
       </c>
       <c r="Z88" t="s">
         <v>199</v>
@@ -35347,10 +35347,10 @@
         <v>1.18263688939736</v>
       </c>
       <c r="X89" t="n">
-        <v>0.607843137254902</v>
+        <v>0.577639751552795</v>
       </c>
       <c r="Y89" t="n">
-        <v>1.52941176470588</v>
+        <v>0.668571428571429</v>
       </c>
       <c r="Z89" t="s">
         <v>201</v>
@@ -35439,10 +35439,10 @@
         <v>-1.51939091776764</v>
       </c>
       <c r="X90" t="n">
-        <v>0.941176470588235</v>
+        <v>0.894409937888199</v>
       </c>
       <c r="Y90" t="n">
-        <v>1.3202614379085</v>
+        <v>0.577142857142857</v>
       </c>
       <c r="Z90" t="s">
         <v>203</v>
@@ -35531,10 +35531,10 @@
         <v>3.71822207950202</v>
       </c>
       <c r="X91" t="n">
-        <v>0.0457516339869281</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.666666666666667</v>
+        <v>0.291428571428571</v>
       </c>
       <c r="Z91" t="s">
         <v>205</v>
@@ -35623,10 +35623,10 @@
         <v>-1.08341025272776</v>
       </c>
       <c r="X92" t="n">
-        <v>1.05228758169935</v>
+        <v>1</v>
       </c>
       <c r="Y92" t="n">
-        <v>2.19607843137255</v>
+        <v>0.96</v>
       </c>
       <c r="Z92" t="s">
         <v>207</v>
@@ -35715,10 +35715,10 @@
         <v>0.892795437930506</v>
       </c>
       <c r="X93" t="n">
-        <v>0.666666666666667</v>
+        <v>0.633540372670807</v>
       </c>
       <c r="Y93" t="n">
-        <v>1.60130718954248</v>
+        <v>0.7</v>
       </c>
       <c r="Z93" t="s">
         <v>209</v>
@@ -35807,10 +35807,10 @@
         <v>-0.355605478385419</v>
       </c>
       <c r="X94" t="n">
-        <v>0.849673202614379</v>
+        <v>0.807453416149068</v>
       </c>
       <c r="Y94" t="n">
-        <v>1.32679738562091</v>
+        <v>0.58</v>
       </c>
       <c r="Z94" t="s">
         <v>211</v>
@@ -35899,10 +35899,10 @@
         <v>-0.729535509806279</v>
       </c>
       <c r="X95" t="n">
-        <v>0.856209150326797</v>
+        <v>0.813664596273292</v>
       </c>
       <c r="Y95" t="n">
-        <v>1.3921568627451</v>
+        <v>0.608571428571429</v>
       </c>
       <c r="Z95" t="s">
         <v>213</v>
@@ -35991,10 +35991,10 @@
         <v>-0.955946174067773</v>
       </c>
       <c r="X96" t="n">
-        <v>0.784313725490196</v>
+        <v>0.745341614906832</v>
       </c>
       <c r="Y96" t="n">
-        <v>1.06535947712418</v>
+        <v>0.465714285714286</v>
       </c>
       <c r="Z96" t="s">
         <v>215</v>
@@ -36083,10 +36083,10 @@
         <v>-0.0696855179306211</v>
       </c>
       <c r="X97" t="n">
-        <v>1</v>
+        <v>0.950310559006211</v>
       </c>
       <c r="Y97" t="n">
-        <v>1.62091503267974</v>
+        <v>0.708571428571429</v>
       </c>
       <c r="Z97" t="s">
         <v>217</v>
@@ -36175,10 +36175,10 @@
         <v>-1.25839805125699</v>
       </c>
       <c r="X98" t="n">
-        <v>0.941176470588235</v>
+        <v>0.894409937888199</v>
       </c>
       <c r="Y98" t="n">
-        <v>1.35947712418301</v>
+        <v>0.594285714285714</v>
       </c>
       <c r="Z98" t="s">
         <v>219</v>
@@ -36267,10 +36267,10 @@
         <v>4.56009280212846</v>
       </c>
       <c r="X99" t="n">
-        <v>0.0457516339869281</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.470588235294118</v>
+        <v>0.205714285714286</v>
       </c>
       <c r="Z99" t="s">
         <v>340</v>
@@ -36359,10 +36359,10 @@
         <v>1.09046394316783</v>
       </c>
       <c r="X100" t="n">
-        <v>0.150326797385621</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.294117647058824</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Z100" t="s">
         <v>221</v>
@@ -36451,10 +36451,10 @@
         <v>3.82084797504318</v>
       </c>
       <c r="X101" t="n">
-        <v>0.0522875816993464</v>
+        <v>0.0496894409937888</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.352941176470588</v>
+        <v>0.154285714285714</v>
       </c>
       <c r="Z101" t="s">
         <v>342</v>
@@ -36543,10 +36543,10 @@
         <v>-0.693860829903596</v>
       </c>
       <c r="X102" t="n">
-        <v>0.888888888888889</v>
+        <v>0.84472049689441</v>
       </c>
       <c r="Y102" t="n">
-        <v>1.26797385620915</v>
+        <v>0.554285714285714</v>
       </c>
       <c r="Z102" t="s">
         <v>223</v>
@@ -36635,10 +36635,10 @@
         <v>2.97986436384449</v>
       </c>
       <c r="X103" t="n">
-        <v>0.163398692810458</v>
+        <v>0.15527950310559</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.529411764705882</v>
+        <v>0.231428571428571</v>
       </c>
       <c r="Z103" t="s">
         <v>225</v>
@@ -36727,10 +36727,10 @@
         <v>0.139452202978794</v>
       </c>
       <c r="X104" t="n">
-        <v>0.300653594771242</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.496732026143791</v>
+        <v>0.217142857142857</v>
       </c>
       <c r="Z104" t="s">
         <v>227</v>
@@ -36819,10 +36819,10 @@
         <v>-0.336610523453516</v>
       </c>
       <c r="X105" t="n">
-        <v>0.189542483660131</v>
+        <v>0.180124223602484</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.366013071895425</v>
+        <v>0.16</v>
       </c>
       <c r="Z105" t="s">
         <v>229</v>
@@ -36911,10 +36911,10 @@
         <v>0.250832418316878</v>
       </c>
       <c r="X106" t="n">
-        <v>0.61437908496732</v>
+        <v>0.583850931677019</v>
       </c>
       <c r="Y106" t="n">
-        <v>1.08496732026144</v>
+        <v>0.474285714285714</v>
       </c>
       <c r="Z106" t="s">
         <v>231</v>
@@ -37003,10 +37003,10 @@
         <v>-0.875540008064353</v>
       </c>
       <c r="X107" t="n">
-        <v>0.30718954248366</v>
+        <v>0.291925465838509</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.228758169934641</v>
+        <v>0.1</v>
       </c>
       <c r="Z107" t="s">
         <v>233</v>
@@ -37095,10 +37095,10 @@
         <v>-0.593883980395098</v>
       </c>
       <c r="X108" t="n">
-        <v>0.660130718954248</v>
+        <v>0.627329192546584</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.888888888888889</v>
+        <v>0.388571428571429</v>
       </c>
       <c r="Z108" t="s">
         <v>235</v>
@@ -37187,10 +37187,10 @@
         <v>0.665624065237232</v>
       </c>
       <c r="X109" t="n">
-        <v>0.61437908496732</v>
+        <v>0.583850931677019</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.849673202614379</v>
+        <v>0.371428571428571</v>
       </c>
       <c r="Z109" t="s">
         <v>237</v>
@@ -37279,10 +37279,10 @@
         <v>0.868662610801013</v>
       </c>
       <c r="X110" t="n">
-        <v>0.444444444444444</v>
+        <v>0.422360248447205</v>
       </c>
       <c r="Y110" t="n">
-        <v>1.12418300653595</v>
+        <v>0.491428571428571</v>
       </c>
       <c r="Z110" t="s">
         <v>239</v>
@@ -37371,10 +37371,10 @@
         <v>-1.12813303937947</v>
       </c>
       <c r="X111" t="n">
-        <v>0.705882352941177</v>
+        <v>0.670807453416149</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.679738562091503</v>
+        <v>0.297142857142857</v>
       </c>
       <c r="Z111" t="s">
         <v>241</v>
@@ -37463,10 +37463,10 @@
         <v>-1.05100067822202</v>
       </c>
       <c r="X112" t="n">
-        <v>0.973856209150327</v>
+        <v>0.925465838509317</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.823529411764706</v>
+        <v>0.36</v>
       </c>
       <c r="Z112" t="s">
         <v>243</v>
@@ -37555,10 +37555,10 @@
         <v>3.15010476953517</v>
       </c>
       <c r="X113" t="n">
-        <v>0.156862745098039</v>
+        <v>0.149068322981366</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.320261437908497</v>
+        <v>0.14</v>
       </c>
       <c r="Z113" t="s">
         <v>344</v>
@@ -37647,10 +37647,10 @@
         <v>-0.982827434907737</v>
       </c>
       <c r="X114" t="n">
-        <v>0.941176470588235</v>
+        <v>0.894409937888199</v>
       </c>
       <c r="Y114" t="n">
-        <v>1.47058823529412</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="Z114" t="s">
         <v>245</v>
@@ -37739,10 +37739,10 @@
         <v>0.278403354651405</v>
       </c>
       <c r="X115" t="n">
-        <v>0.594771241830065</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="Y115" t="n">
-        <v>1.00653594771242</v>
+        <v>0.44</v>
       </c>
       <c r="Z115" t="s">
         <v>247</v>
@@ -37831,10 +37831,10 @@
         <v>-1.12833807451465</v>
       </c>
       <c r="X116" t="n">
-        <v>0.248366013071895</v>
+        <v>0.236024844720497</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.196078431372549</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="Z116" t="s">
         <v>249</v>
@@ -37923,10 +37923,10 @@
         <v>-0.325480469343236</v>
       </c>
       <c r="X117" t="n">
-        <v>0.993464052287582</v>
+        <v>0.944099378881988</v>
       </c>
       <c r="Y117" t="n">
-        <v>1.6078431372549</v>
+        <v>0.702857142857143</v>
       </c>
       <c r="Z117" t="s">
         <v>251</v>
@@ -38015,10 +38015,10 @@
         <v>-1.07790974033351</v>
       </c>
       <c r="X118" t="n">
-        <v>0.431372549019608</v>
+        <v>0.409937888198758</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.444444444444444</v>
+        <v>0.194285714285714</v>
       </c>
       <c r="Z118" t="s">
         <v>253</v>
@@ -38107,10 +38107,10 @@
         <v>-0.696417836056969</v>
       </c>
       <c r="X119" t="n">
-        <v>0.65359477124183</v>
+        <v>0.62111801242236</v>
       </c>
       <c r="Y119" t="n">
-        <v>1.04575163398693</v>
+        <v>0.457142857142857</v>
       </c>
       <c r="Z119" t="s">
         <v>255</v>
@@ -38199,10 +38199,10 @@
         <v>-0.0260475002170056</v>
       </c>
       <c r="X120" t="n">
-        <v>0.189542483660131</v>
+        <v>0.180124223602484</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.34640522875817</v>
+        <v>0.151428571428571</v>
       </c>
       <c r="Z120" t="s">
         <v>257</v>
@@ -38291,10 +38291,10 @@
         <v>-0.539656697486997</v>
       </c>
       <c r="X121" t="n">
-        <v>0.274509803921569</v>
+        <v>0.260869565217391</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.326797385620915</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z121" t="s">
         <v>259</v>
@@ -38383,10 +38383,10 @@
         <v>1.38175562856729</v>
       </c>
       <c r="X122" t="n">
-        <v>0.189542483660131</v>
+        <v>0.180124223602484</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.366013071895425</v>
+        <v>0.16</v>
       </c>
       <c r="Z122" t="s">
         <v>261</v>
@@ -38475,10 +38475,10 @@
         <v>-0.622151536000105</v>
       </c>
       <c r="X123" t="n">
-        <v>0.718954248366013</v>
+        <v>0.683229813664596</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.908496732026144</v>
+        <v>0.397142857142857</v>
       </c>
       <c r="Z123" t="s">
         <v>263</v>
@@ -38567,10 +38567,10 @@
         <v>-0.0852661460301799</v>
       </c>
       <c r="X124" t="n">
-        <v>0.111111111111111</v>
+        <v>0.105590062111801</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.202614379084967</v>
+        <v>0.0885714285714286</v>
       </c>
       <c r="Z124" t="s">
         <v>265</v>
@@ -38659,10 +38659,10 @@
         <v>1.12691112022857</v>
       </c>
       <c r="X125" t="n">
-        <v>0.189542483660131</v>
+        <v>0.180124223602484</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.248366013071895</v>
+        <v>0.108571428571429</v>
       </c>
       <c r="Z125" t="s">
         <v>267</v>
@@ -38751,10 +38751,10 @@
         <v>1.00365207369004</v>
       </c>
       <c r="X126" t="n">
-        <v>0.248366013071895</v>
+        <v>0.236024844720497</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.542483660130719</v>
+        <v>0.237142857142857</v>
       </c>
       <c r="Z126" t="s">
         <v>269</v>
@@ -38843,10 +38843,10 @@
         <v>-1.63221520225731</v>
       </c>
       <c r="X127" t="n">
-        <v>0.143790849673203</v>
+        <v>0.136645962732919</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.0915032679738562</v>
+        <v>0.04</v>
       </c>
       <c r="Z127" t="s">
         <v>271</v>
@@ -38935,10 +38935,10 @@
         <v>-1.84695514648564</v>
       </c>
       <c r="X128" t="n">
-        <v>0.241830065359477</v>
+        <v>0.229813664596273</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.228758169934641</v>
+        <v>0.1</v>
       </c>
       <c r="Z128" t="s">
         <v>273</v>
@@ -39027,10 +39027,10 @@
         <v>-3.24411618651997</v>
       </c>
       <c r="X129" t="n">
-        <v>0.0980392156862745</v>
+        <v>0.093167701863354</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.790849673202614</v>
+        <v>0.345714285714286</v>
       </c>
       <c r="Z129" t="s">
         <v>275</v>
@@ -39119,10 +39119,10 @@
         <v>-1.20010427829598</v>
       </c>
       <c r="X130" t="n">
-        <v>0.241830065359477</v>
+        <v>0.229813664596273</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.235294117647059</v>
+        <v>0.102857142857143</v>
       </c>
       <c r="Z130" t="s">
         <v>279</v>
@@ -39211,10 +39211,10 @@
         <v>-0.464152118186767</v>
       </c>
       <c r="X131" t="n">
-        <v>0.496732026143791</v>
+        <v>0.472049689440994</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.849673202614379</v>
+        <v>0.371428571428571</v>
       </c>
       <c r="Z131" t="s">
         <v>281</v>
@@ -39303,10 +39303,10 @@
         <v>1.42498707006971</v>
       </c>
       <c r="X132" t="n">
-        <v>1.01960784313725</v>
+        <v>0.968944099378882</v>
       </c>
       <c r="Y132" t="n">
-        <v>2.11111111111111</v>
+        <v>0.922857142857143</v>
       </c>
       <c r="Z132" t="s">
         <v>283</v>
@@ -39395,10 +39395,10 @@
         <v>1.24277598050332</v>
       </c>
       <c r="X133" t="n">
-        <v>0.405228758169935</v>
+        <v>0.385093167701863</v>
       </c>
       <c r="Y133" t="n">
-        <v>1.12418300653595</v>
+        <v>0.491428571428571</v>
       </c>
       <c r="Z133" t="s">
         <v>285</v>
@@ -39487,10 +39487,10 @@
         <v>0.444901271008799</v>
       </c>
       <c r="X134" t="n">
-        <v>0.816993464052288</v>
+        <v>0.77639751552795</v>
       </c>
       <c r="Y134" t="n">
-        <v>1.27450980392157</v>
+        <v>0.557142857142857</v>
       </c>
       <c r="Z134" t="s">
         <v>287</v>
@@ -39579,10 +39579,10 @@
         <v>0.581805376493028</v>
       </c>
       <c r="X135" t="n">
-        <v>0.274509803921569</v>
+        <v>0.260869565217391</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.954248366013072</v>
+        <v>0.417142857142857</v>
       </c>
       <c r="Z135" t="s">
         <v>289</v>
@@ -39671,10 +39671,10 @@
         <v>-0.47316767165169</v>
       </c>
       <c r="X136" t="n">
-        <v>0.549019607843137</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.738562091503268</v>
+        <v>0.322857142857143</v>
       </c>
       <c r="Z136" t="s">
         <v>291</v>
@@ -39763,10 +39763,10 @@
         <v>-0.30879383394019</v>
       </c>
       <c r="X137" t="n">
-        <v>0.490196078431373</v>
+        <v>0.46583850931677</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.810457516339869</v>
+        <v>0.354285714285714</v>
       </c>
       <c r="Z137" t="s">
         <v>293</v>
@@ -39858,7 +39858,7 @@
         <v>0</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.764705882352941</v>
+        <v>0.334285714285714</v>
       </c>
       <c r="Z138" t="s">
         <v>346</v>
@@ -39947,10 +39947,10 @@
         <v>2.65843542955575</v>
       </c>
       <c r="X139" t="n">
-        <v>0.117647058823529</v>
+        <v>0.111801242236025</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.470588235294118</v>
+        <v>0.205714285714286</v>
       </c>
       <c r="Z139" t="s">
         <v>348</v>
@@ -40039,10 +40039,10 @@
         <v>2.33593751280081</v>
       </c>
       <c r="X140" t="n">
-        <v>0.980392156862745</v>
+        <v>0.93167701863354</v>
       </c>
       <c r="Y140" t="n">
-        <v>2.23529411764706</v>
+        <v>0.977142857142857</v>
       </c>
       <c r="Z140" t="s">
         <v>295</v>
@@ -40131,10 +40131,10 @@
         <v>1.15751299358334</v>
       </c>
       <c r="X141" t="n">
-        <v>0.967320261437909</v>
+        <v>0.919254658385093</v>
       </c>
       <c r="Y141" t="n">
-        <v>1.86928104575163</v>
+        <v>0.817142857142857</v>
       </c>
       <c r="Z141" t="s">
         <v>297</v>
@@ -40223,10 +40223,10 @@
         <v>-1.16824092464739</v>
       </c>
       <c r="X142" t="n">
-        <v>0.856209150326797</v>
+        <v>0.813664596273292</v>
       </c>
       <c r="Y142" t="n">
-        <v>1.54901960784314</v>
+        <v>0.677142857142857</v>
       </c>
       <c r="Z142" t="s">
         <v>299</v>
@@ -40315,10 +40315,10 @@
         <v>-2.12786848048976</v>
       </c>
       <c r="X143" t="n">
-        <v>0.183006535947712</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.117647058823529</v>
+        <v>0.0514285714285714</v>
       </c>
       <c r="Z143" t="s">
         <v>301</v>
@@ -40407,10 +40407,10 @@
         <v>-3.53229982865768</v>
       </c>
       <c r="X144" t="n">
-        <v>0.117647058823529</v>
+        <v>0.111801242236025</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.222222222222222</v>
+        <v>0.0971428571428571</v>
       </c>
       <c r="Z144" t="s">
         <v>303</v>
@@ -40499,10 +40499,10 @@
         <v>-1.08622291489686</v>
       </c>
       <c r="X145" t="n">
-        <v>0.183006535947712</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.405228758169935</v>
+        <v>0.177142857142857</v>
       </c>
       <c r="Z145" t="s">
         <v>305</v>
@@ -40591,10 +40591,10 @@
         <v>0.883965301926381</v>
       </c>
       <c r="X146" t="n">
-        <v>0.169934640522876</v>
+        <v>0.161490683229814</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.705882352941177</v>
+        <v>0.308571428571429</v>
       </c>
       <c r="Z146" t="s">
         <v>307</v>
@@ -40683,10 +40683,10 @@
         <v>-0.520812055083039</v>
       </c>
       <c r="X147" t="n">
-        <v>0.26797385620915</v>
+        <v>0.254658385093168</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.294117647058824</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Z147" t="s">
         <v>309</v>
@@ -40775,10 +40775,10 @@
         <v>0.103568520359934</v>
       </c>
       <c r="X148" t="n">
-        <v>0.647058823529412</v>
+        <v>0.614906832298137</v>
       </c>
       <c r="Y148" t="n">
-        <v>1.1437908496732</v>
+        <v>0.5</v>
       </c>
       <c r="Z148" t="s">
         <v>311</v>
@@ -40867,10 +40867,10 @@
         <v>-0.239808171385013</v>
       </c>
       <c r="X149" t="n">
-        <v>0.928104575163399</v>
+        <v>0.881987577639752</v>
       </c>
       <c r="Y149" t="n">
-        <v>1.36601307189542</v>
+        <v>0.597142857142857</v>
       </c>
       <c r="Z149" t="s">
         <v>313</v>
@@ -40959,10 +40959,10 @@
         <v>0.279705364479959</v>
       </c>
       <c r="X150" t="n">
-        <v>0.836601307189543</v>
+        <v>0.795031055900621</v>
       </c>
       <c r="Y150" t="n">
-        <v>1.30065359477124</v>
+        <v>0.568571428571429</v>
       </c>
       <c r="Z150" t="s">
         <v>315</v>
@@ -41051,10 +41051,10 @@
         <v>-1.24390736310769</v>
       </c>
       <c r="X151" t="n">
-        <v>0.803921568627451</v>
+        <v>0.763975155279503</v>
       </c>
       <c r="Y151" t="n">
-        <v>1.03921568627451</v>
+        <v>0.454285714285714</v>
       </c>
       <c r="Z151" t="s">
         <v>317</v>
@@ -41143,10 +41143,10 @@
         <v>-1.90632615250252</v>
       </c>
       <c r="X152" t="n">
-        <v>0.300653594771242</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.228758169934641</v>
+        <v>0.1</v>
       </c>
       <c r="Z152" t="s">
         <v>319</v>
@@ -41235,10 +41235,10 @@
         <v>0.179389339601618</v>
       </c>
       <c r="X153" t="n">
-        <v>0.34640522875817</v>
+        <v>0.329192546583851</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.372549019607843</v>
+        <v>0.162857142857143</v>
       </c>
       <c r="Z153" t="s">
         <v>321</v>
@@ -41327,10 +41327,10 @@
         <v>3.32891817908514</v>
       </c>
       <c r="X154" t="n">
-        <v>0.666666666666667</v>
+        <v>0.633540372670807</v>
       </c>
       <c r="Y154" t="n">
-        <v>1.95424836601307</v>
+        <v>0.854285714285714</v>
       </c>
       <c r="Z154" t="s">
         <v>323</v>
